--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5577,28 +5577,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8031.221802670138</v>
+        <v>8260.255203824896</v>
       </c>
       <c r="AB2" t="n">
-        <v>10988.67198291372</v>
+        <v>11302.04558661422</v>
       </c>
       <c r="AC2" t="n">
-        <v>9939.928551562016</v>
+        <v>10223.39421834794</v>
       </c>
       <c r="AD2" t="n">
-        <v>8031221.802670139</v>
+        <v>8260255.203824896</v>
       </c>
       <c r="AE2" t="n">
-        <v>10988671.98291372</v>
+        <v>11302045.58661422</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.585205910265527e-07</v>
+        <v>7.751518091802324e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.18836805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>9939928.551562015</v>
+        <v>10223394.21834794</v>
       </c>
     </row>
     <row r="3">
@@ -5683,28 +5683,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3756.9191518745</v>
+        <v>3912.965733234071</v>
       </c>
       <c r="AB3" t="n">
-        <v>5140.382527170371</v>
+        <v>5353.892344075847</v>
       </c>
       <c r="AC3" t="n">
-        <v>4649.791633349227</v>
+        <v>4842.924372992145</v>
       </c>
       <c r="AD3" t="n">
-        <v>3756919.1518745</v>
+        <v>3912965.733234071</v>
       </c>
       <c r="AE3" t="n">
-        <v>5140382.527170371</v>
+        <v>5353892.344075847</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.271346697036842e-07</v>
+        <v>1.229257236794064e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4649791.633349227</v>
+        <v>4842924.372992145</v>
       </c>
     </row>
     <row r="4">
@@ -5789,28 +5789,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3048.84209100417</v>
+        <v>3183.974452608557</v>
       </c>
       <c r="AB4" t="n">
-        <v>4171.560254332283</v>
+        <v>4356.45431309846</v>
       </c>
       <c r="AC4" t="n">
-        <v>3773.432398480241</v>
+        <v>3940.680427778209</v>
       </c>
       <c r="AD4" t="n">
-        <v>3048842.09100417</v>
+        <v>3183974.452608557</v>
       </c>
       <c r="AE4" t="n">
-        <v>4171560.254332283</v>
+        <v>4356454.31309846</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.29743940633878e-07</v>
+        <v>1.402723300383777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.42057291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3773432.398480241</v>
+        <v>3940680.427778209</v>
       </c>
     </row>
     <row r="5">
@@ -5895,28 +5895,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2736.729424339554</v>
+        <v>2861.617893939952</v>
       </c>
       <c r="AB5" t="n">
-        <v>3744.513934362675</v>
+        <v>3915.391848160375</v>
       </c>
       <c r="AC5" t="n">
-        <v>3387.142779925274</v>
+        <v>3541.712345458773</v>
       </c>
       <c r="AD5" t="n">
-        <v>2736729.424339554</v>
+        <v>2861617.893939952</v>
       </c>
       <c r="AE5" t="n">
-        <v>3744513.934362675</v>
+        <v>3915391.848160374</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.857635607959491e-07</v>
+        <v>1.497427247748496e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.87543402777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>3387142.779925274</v>
+        <v>3541712.345458773</v>
       </c>
     </row>
     <row r="6">
@@ -6001,28 +6001,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2576.234052364566</v>
+        <v>2690.708127268935</v>
       </c>
       <c r="AB6" t="n">
-        <v>3524.917085870394</v>
+        <v>3681.545565394316</v>
       </c>
       <c r="AC6" t="n">
-        <v>3188.503946446992</v>
+        <v>3330.184023714598</v>
       </c>
       <c r="AD6" t="n">
-        <v>2576234.052364566</v>
+        <v>2690708.127268935</v>
       </c>
       <c r="AE6" t="n">
-        <v>3524917.085870394</v>
+        <v>3681545.565394316</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.197487970276057e-07</v>
+        <v>1.554880975816427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3188503.946446992</v>
+        <v>3330184.023714598</v>
       </c>
     </row>
     <row r="7">
@@ -6107,28 +6107,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2457.628972923622</v>
+        <v>2572.017706973419</v>
       </c>
       <c r="AB7" t="n">
-        <v>3362.63638369247</v>
+        <v>3519.148096094196</v>
       </c>
       <c r="AC7" t="n">
-        <v>3041.71108672254</v>
+        <v>3183.285540958207</v>
       </c>
       <c r="AD7" t="n">
-        <v>2457628.972923622</v>
+        <v>2572017.706973419</v>
       </c>
       <c r="AE7" t="n">
-        <v>3362636.38369247</v>
+        <v>3519148.096094196</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.434637695628823e-07</v>
+        <v>1.594972313534158e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.47569444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>3041711.08672254</v>
+        <v>3183285.540958207</v>
       </c>
     </row>
     <row r="8">
@@ -6213,28 +6213,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2379.056481639112</v>
+        <v>2483.201413193472</v>
       </c>
       <c r="AB8" t="n">
-        <v>3255.130034743328</v>
+        <v>3397.625724646124</v>
       </c>
       <c r="AC8" t="n">
-        <v>2944.464992830999</v>
+        <v>3073.361094083423</v>
       </c>
       <c r="AD8" t="n">
-        <v>2379056.481639112</v>
+        <v>2483201.413193472</v>
       </c>
       <c r="AE8" t="n">
-        <v>3255130.034743328</v>
+        <v>3397625.724646124</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.605497537123142e-07</v>
+        <v>1.623857017480397e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2944464.992830999</v>
+        <v>3073361.094083423</v>
       </c>
     </row>
     <row r="9">
@@ -6319,28 +6319,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2302.477273780518</v>
+        <v>2416.951259176336</v>
       </c>
       <c r="AB9" t="n">
-        <v>3150.35098411498</v>
+        <v>3306.979341169354</v>
       </c>
       <c r="AC9" t="n">
-        <v>2849.685907736303</v>
+        <v>2991.365874222683</v>
       </c>
       <c r="AD9" t="n">
-        <v>2302477.273780518</v>
+        <v>2416951.259176336</v>
       </c>
       <c r="AE9" t="n">
-        <v>3150350.98411498</v>
+        <v>3306979.341169355</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.743679266856252e-07</v>
+        <v>1.647217324497028e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.79644097222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2849685.907736303</v>
+        <v>2991365.874222683</v>
       </c>
     </row>
     <row r="10">
@@ -6425,28 +6425,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2250.926715461146</v>
+        <v>2365.400700856964</v>
       </c>
       <c r="AB10" t="n">
-        <v>3079.817235972286</v>
+        <v>3236.445593026661</v>
       </c>
       <c r="AC10" t="n">
-        <v>2785.883801521614</v>
+        <v>2927.563768007993</v>
       </c>
       <c r="AD10" t="n">
-        <v>2250926.715461146</v>
+        <v>2365400.700856964</v>
       </c>
       <c r="AE10" t="n">
-        <v>3079817.235972286</v>
+        <v>3236445.593026661</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.845448243484014e-07</v>
+        <v>1.664421874934952e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.57942708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2785883.801521614</v>
+        <v>2927563.768007993</v>
       </c>
     </row>
     <row r="11">
@@ -6531,28 +6531,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2208.910856936523</v>
+        <v>2312.970447636311</v>
       </c>
       <c r="AB11" t="n">
-        <v>3022.329284730037</v>
+        <v>3164.708207510635</v>
       </c>
       <c r="AC11" t="n">
-        <v>2733.88241966108</v>
+        <v>2862.672897881567</v>
       </c>
       <c r="AD11" t="n">
-        <v>2208910.856936524</v>
+        <v>2312970.447636311</v>
       </c>
       <c r="AE11" t="n">
-        <v>3022329.284730037</v>
+        <v>3164708.207510635</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.923875711710913e-07</v>
+        <v>1.677680427566013e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>2733882.41966108</v>
+        <v>2862672.897881567</v>
       </c>
     </row>
     <row r="12">
@@ -6637,28 +6637,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2164.961101065107</v>
+        <v>2269.020691764897</v>
       </c>
       <c r="AB12" t="n">
-        <v>2962.195289820206</v>
+        <v>3104.574212600978</v>
       </c>
       <c r="AC12" t="n">
-        <v>2679.487528826966</v>
+        <v>2808.278007047497</v>
       </c>
       <c r="AD12" t="n">
-        <v>2164961.101065107</v>
+        <v>2269020.691764897</v>
       </c>
       <c r="AE12" t="n">
-        <v>2962195.289820206</v>
+        <v>3104574.212600978</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.999502198929708e-07</v>
+        <v>1.69046546046025e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.26475694444444</v>
       </c>
       <c r="AH12" t="n">
-        <v>2679487.528826966</v>
+        <v>2808278.007047497</v>
       </c>
     </row>
     <row r="13">
@@ -6743,28 +6743,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2128.962722493611</v>
+        <v>2233.022313193402</v>
       </c>
       <c r="AB13" t="n">
-        <v>2912.940720122308</v>
+        <v>3055.319642903076</v>
       </c>
       <c r="AC13" t="n">
-        <v>2634.933746131812</v>
+        <v>2763.724224352342</v>
       </c>
       <c r="AD13" t="n">
-        <v>2128962.722493611</v>
+        <v>2233022.313193402</v>
       </c>
       <c r="AE13" t="n">
-        <v>2912940.720122308</v>
+        <v>3055319.642903076</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.005272083808368e-06</v>
+        <v>1.699462335459899e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.15407986111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>2634933.746131812</v>
+        <v>2763724.224352343</v>
       </c>
     </row>
     <row r="14">
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2095.96774446102</v>
+        <v>2200.02733516081</v>
       </c>
       <c r="AB14" t="n">
-        <v>2867.795535542418</v>
+        <v>3010.174458323185</v>
       </c>
       <c r="AC14" t="n">
-        <v>2594.097154606563</v>
+        <v>2722.887632827093</v>
       </c>
       <c r="AD14" t="n">
-        <v>2095967.74446102</v>
+        <v>2200027.33516081</v>
       </c>
       <c r="AE14" t="n">
-        <v>2867795.535542418</v>
+        <v>3010174.458323185</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.010500581690161e-06</v>
+        <v>1.708301370547273e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>2594097.154606564</v>
+        <v>2722887.632827093</v>
       </c>
     </row>
     <row r="15">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2052.97945489805</v>
+        <v>2167.368099439296</v>
       </c>
       <c r="AB15" t="n">
-        <v>2808.977061252876</v>
+        <v>2965.488651185044</v>
       </c>
       <c r="AC15" t="n">
-        <v>2540.892232950968</v>
+        <v>2682.466576405406</v>
       </c>
       <c r="AD15" t="n">
-        <v>2052979.45489805</v>
+        <v>2167368.099439296</v>
       </c>
       <c r="AE15" t="n">
-        <v>2808977.061252876</v>
+        <v>2965488.651185044</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.01479541923592e-06</v>
+        <v>1.715562006511901e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.96527777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>2540892.232950968</v>
+        <v>2682466.576405406</v>
       </c>
     </row>
     <row r="16">
@@ -7061,28 +7061,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2021.762324830851</v>
+        <v>2136.150969372097</v>
       </c>
       <c r="AB16" t="n">
-        <v>2766.264406692355</v>
+        <v>2922.775996624523</v>
       </c>
       <c r="AC16" t="n">
-        <v>2502.256014194115</v>
+        <v>2643.830357648553</v>
       </c>
       <c r="AD16" t="n">
-        <v>2021762.324830851</v>
+        <v>2136150.969372097</v>
       </c>
       <c r="AE16" t="n">
-        <v>2766264.406692355</v>
+        <v>2922775.996624523</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.018156596445644e-06</v>
+        <v>1.721244243353784e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.90017361111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>2502256.014194116</v>
+        <v>2643830.357648553</v>
       </c>
     </row>
     <row r="17">
@@ -7167,28 +7167,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1993.201412055815</v>
+        <v>2107.590056597061</v>
       </c>
       <c r="AB17" t="n">
-        <v>2727.186105815007</v>
+        <v>2883.697695747175</v>
       </c>
       <c r="AC17" t="n">
-        <v>2466.907291505762</v>
+        <v>2608.4816349602</v>
       </c>
       <c r="AD17" t="n">
-        <v>1993201.412055815</v>
+        <v>2107590.056597061</v>
       </c>
       <c r="AE17" t="n">
-        <v>2727186.105815007</v>
+        <v>2883697.695747175</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.021424407621765e-06</v>
+        <v>1.726768640283393e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.83723958333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>2466907.291505762</v>
+        <v>2608481.6349602</v>
       </c>
     </row>
     <row r="18">
@@ -7273,28 +7273,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1963.742918558232</v>
+        <v>2067.88776060404</v>
       </c>
       <c r="AB18" t="n">
-        <v>2686.879695394603</v>
+        <v>2829.375262827842</v>
       </c>
       <c r="AC18" t="n">
-        <v>2430.447668325479</v>
+        <v>2559.343658796674</v>
       </c>
       <c r="AD18" t="n">
-        <v>1963742.918558232</v>
+        <v>2067887.76060404</v>
       </c>
       <c r="AE18" t="n">
-        <v>2686879.695394603</v>
+        <v>2829375.262827842</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.023851924495454e-06</v>
+        <v>1.730872478002531e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.78949652777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>2430447.668325479</v>
+        <v>2559343.658796674</v>
       </c>
     </row>
     <row r="19">
@@ -7379,28 +7379,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1946.996303358402</v>
+        <v>2051.14114540421</v>
       </c>
       <c r="AB19" t="n">
-        <v>2663.966237669675</v>
+        <v>2806.461805102915</v>
       </c>
       <c r="AC19" t="n">
-        <v>2409.721038846577</v>
+        <v>2538.617029317773</v>
       </c>
       <c r="AD19" t="n">
-        <v>1946996.303358402</v>
+        <v>2051141.14540421</v>
       </c>
       <c r="AE19" t="n">
-        <v>2663966.237669675</v>
+        <v>2806461.805102915</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.025439147066713e-06</v>
+        <v>1.733555756511198e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.75911458333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>2409721.038846578</v>
+        <v>2538617.029317773</v>
       </c>
     </row>
     <row r="20">
@@ -7485,28 +7485,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1937.852238446571</v>
+        <v>2041.997080492379</v>
       </c>
       <c r="AB20" t="n">
-        <v>2651.454924649635</v>
+        <v>2793.950492082875</v>
       </c>
       <c r="AC20" t="n">
-        <v>2398.403787981432</v>
+        <v>2527.299778452628</v>
       </c>
       <c r="AD20" t="n">
-        <v>1937852.238446571</v>
+        <v>2041997.080492379</v>
       </c>
       <c r="AE20" t="n">
-        <v>2651454.924649635</v>
+        <v>2793950.492082875</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.026279441369144e-06</v>
+        <v>1.734976315721669e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.74392361111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>2398403.787981432</v>
+        <v>2527299.778452628</v>
       </c>
     </row>
     <row r="21">
@@ -7591,28 +7591,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1945.343806286769</v>
+        <v>2049.488648332578</v>
       </c>
       <c r="AB21" t="n">
-        <v>2661.705218273242</v>
+        <v>2804.200785706481</v>
       </c>
       <c r="AC21" t="n">
-        <v>2407.67580796798</v>
+        <v>2536.571798439175</v>
       </c>
       <c r="AD21" t="n">
-        <v>1945343.806286769</v>
+        <v>2049488.648332578</v>
       </c>
       <c r="AE21" t="n">
-        <v>2661705.218273242</v>
+        <v>2804200.785706481</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.026746271537161e-06</v>
+        <v>1.735765515283041e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.73524305555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>2407675.80796798</v>
+        <v>2536571.798439175</v>
       </c>
     </row>
     <row r="22">
@@ -7697,28 +7697,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1954.102801161295</v>
+        <v>2058.247643207104</v>
       </c>
       <c r="AB22" t="n">
-        <v>2673.68966148015</v>
+        <v>2816.185228913389</v>
       </c>
       <c r="AC22" t="n">
-        <v>2418.516472735493</v>
+        <v>2547.412463206688</v>
       </c>
       <c r="AD22" t="n">
-        <v>1954102.801161295</v>
+        <v>2058247.643207104</v>
       </c>
       <c r="AE22" t="n">
-        <v>2673689.66148015</v>
+        <v>2816185.22891339</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.026746271537161e-06</v>
+        <v>1.735765515283041e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.73524305555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>2418516.472735493</v>
+        <v>2547412.463206688</v>
       </c>
     </row>
   </sheetData>
@@ -7994,28 +7994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5539.710130425247</v>
+        <v>5731.260327257999</v>
       </c>
       <c r="AB2" t="n">
-        <v>7579.675795210695</v>
+        <v>7841.763225115551</v>
       </c>
       <c r="AC2" t="n">
-        <v>6856.282175457292</v>
+        <v>7093.356348894036</v>
       </c>
       <c r="AD2" t="n">
-        <v>5539710.130425247</v>
+        <v>5731260.327257999</v>
       </c>
       <c r="AE2" t="n">
-        <v>7579675.795210695</v>
+        <v>7841763.225115551</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.629989516797937e-07</v>
+        <v>9.749965217414759e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.22873263888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>6856282.175457292</v>
+        <v>7093356.348894036</v>
       </c>
     </row>
     <row r="3">
@@ -8100,28 +8100,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3012.958259779108</v>
+        <v>3154.055527884007</v>
       </c>
       <c r="AB3" t="n">
-        <v>4122.462413367244</v>
+        <v>4315.517920360525</v>
       </c>
       <c r="AC3" t="n">
-        <v>3729.020386547656</v>
+        <v>3903.650946908595</v>
       </c>
       <c r="AD3" t="n">
-        <v>3012958.259779108</v>
+        <v>3154055.527884007</v>
       </c>
       <c r="AE3" t="n">
-        <v>4122462.413367244</v>
+        <v>4315517.920360525</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.119972871456554e-07</v>
+        <v>1.406209599979514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.81380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3729020.386547656</v>
+        <v>3903650.946908595</v>
       </c>
     </row>
     <row r="4">
@@ -8206,28 +8206,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2524.450043287508</v>
+        <v>2645.366265213237</v>
       </c>
       <c r="AB4" t="n">
-        <v>3454.063920101914</v>
+        <v>3619.506829387931</v>
       </c>
       <c r="AC4" t="n">
-        <v>3124.412907376416</v>
+        <v>3274.066177600751</v>
       </c>
       <c r="AD4" t="n">
-        <v>2524450.043287508</v>
+        <v>2645366.265213237</v>
       </c>
       <c r="AE4" t="n">
-        <v>3454063.920101914</v>
+        <v>3619506.829387931</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.04719708420763e-07</v>
+        <v>1.566785455335805e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.16840277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>3124412.907376416</v>
+        <v>3274066.177600751</v>
       </c>
     </row>
     <row r="5">
@@ -8312,28 +8312,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2295.66772292109</v>
+        <v>2416.583855338269</v>
       </c>
       <c r="AB5" t="n">
-        <v>3141.033856212929</v>
+        <v>3306.476643029398</v>
       </c>
       <c r="AC5" t="n">
-        <v>2841.257993444553</v>
+        <v>2990.911152887662</v>
       </c>
       <c r="AD5" t="n">
-        <v>2295667.722921091</v>
+        <v>2416583.855338269</v>
       </c>
       <c r="AE5" t="n">
-        <v>3141033.856212929</v>
+        <v>3306476.643029398</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.534955654456894e-07</v>
+        <v>1.651255045913853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.98350694444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>2841257.993444554</v>
+        <v>2990911.152887662</v>
       </c>
     </row>
     <row r="6">
@@ -8418,28 +8418,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2172.93590513085</v>
+        <v>2283.761559212722</v>
       </c>
       <c r="AB6" t="n">
-        <v>2973.106768566481</v>
+        <v>3124.743317764267</v>
       </c>
       <c r="AC6" t="n">
-        <v>2689.357631356052</v>
+        <v>2826.522201121518</v>
       </c>
       <c r="AD6" t="n">
-        <v>2172935.90513085</v>
+        <v>2283761.559212722</v>
       </c>
       <c r="AE6" t="n">
-        <v>2973106.768566481</v>
+        <v>3124743.317764266</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.833405947936147e-07</v>
+        <v>1.702940399356659e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.31727430555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>2689357.631356052</v>
+        <v>2826522.201121518</v>
       </c>
     </row>
     <row r="7">
@@ -8524,28 +8524,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2074.052184644582</v>
+        <v>2184.963090072471</v>
       </c>
       <c r="AB7" t="n">
-        <v>2837.809699755305</v>
+        <v>2989.562893605558</v>
       </c>
       <c r="AC7" t="n">
-        <v>2566.973124901588</v>
+        <v>2704.243206917717</v>
       </c>
       <c r="AD7" t="n">
-        <v>2074052.184644582</v>
+        <v>2184963.090072471</v>
       </c>
       <c r="AE7" t="n">
-        <v>2837809.699755305</v>
+        <v>2989562.893605558</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.003913382014029e-06</v>
+        <v>1.738568167263836e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.87890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2566973.124901588</v>
+        <v>2704243.206917717</v>
       </c>
     </row>
     <row r="8">
@@ -8630,28 +8630,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2008.098713789298</v>
+        <v>2119.009619217187</v>
       </c>
       <c r="AB8" t="n">
-        <v>2747.569251269326</v>
+        <v>2899.322445119578</v>
       </c>
       <c r="AC8" t="n">
-        <v>2485.345098165844</v>
+        <v>2622.615180181974</v>
       </c>
       <c r="AD8" t="n">
-        <v>2008098.713789298</v>
+        <v>2119009.619217187</v>
       </c>
       <c r="AE8" t="n">
-        <v>2747569.251269326</v>
+        <v>2899322.445119578</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.01849784619376e-06</v>
+        <v>1.763825411179253e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.58159722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>2485345.098165844</v>
+        <v>2622615.180181974</v>
       </c>
     </row>
     <row r="9">
@@ -8736,28 +8736,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1949.076296216832</v>
+        <v>2049.896723309413</v>
       </c>
       <c r="AB9" t="n">
-        <v>2666.812175661388</v>
+        <v>2804.759131892785</v>
       </c>
       <c r="AC9" t="n">
-        <v>2412.295364510661</v>
+        <v>2537.076856849102</v>
       </c>
       <c r="AD9" t="n">
-        <v>1949076.296216832</v>
+        <v>2049896.723309413</v>
       </c>
       <c r="AE9" t="n">
-        <v>2666812.175661388</v>
+        <v>2804759.131892785</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.030281320564138e-06</v>
+        <v>1.784231926130781e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.34505208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2412295.364510661</v>
+        <v>2537076.856849102</v>
       </c>
     </row>
     <row r="10">
@@ -8842,28 +8842,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1897.183716834943</v>
+        <v>1998.004143927524</v>
       </c>
       <c r="AB10" t="n">
-        <v>2595.810459212059</v>
+        <v>2733.757415443456</v>
       </c>
       <c r="AC10" t="n">
-        <v>2348.06995222772</v>
+        <v>2472.851444566161</v>
       </c>
       <c r="AD10" t="n">
-        <v>1897183.716834943</v>
+        <v>1998004.143927524</v>
       </c>
       <c r="AE10" t="n">
-        <v>2595810.459212059</v>
+        <v>2733757.415443455</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.039650148547143e-06</v>
+        <v>1.800456778182407e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.16276041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2348069.952227721</v>
+        <v>2472851.444566161</v>
       </c>
     </row>
     <row r="11">
@@ -8948,28 +8948,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1845.220806964928</v>
+        <v>1946.041234057509</v>
       </c>
       <c r="AB11" t="n">
-        <v>2524.712513486113</v>
+        <v>2662.659469717509</v>
       </c>
       <c r="AC11" t="n">
-        <v>2283.757494655265</v>
+        <v>2408.538986993707</v>
       </c>
       <c r="AD11" t="n">
-        <v>1845220.806964928</v>
+        <v>1946041.234057509</v>
       </c>
       <c r="AE11" t="n">
-        <v>2524712.513486113</v>
+        <v>2662659.469717509</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.046314572576292e-06</v>
+        <v>1.81199816778614e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.03255208333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2283757.494655265</v>
+        <v>2408538.986993707</v>
       </c>
     </row>
     <row r="12">
@@ -9054,28 +9054,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1795.581132244304</v>
+        <v>1906.406696817623</v>
       </c>
       <c r="AB12" t="n">
-        <v>2456.793320585466</v>
+        <v>2608.42974731352</v>
       </c>
       <c r="AC12" t="n">
-        <v>2222.32041419987</v>
+        <v>2359.484873184061</v>
       </c>
       <c r="AD12" t="n">
-        <v>1795581.132244304</v>
+        <v>1906406.696817623</v>
       </c>
       <c r="AE12" t="n">
-        <v>2456793.320585466</v>
+        <v>2608429.74731352</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.05297899660544e-06</v>
+        <v>1.823539557389873e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.90451388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>2222320.41419987</v>
+        <v>2359484.873184061</v>
       </c>
     </row>
     <row r="13">
@@ -9160,28 +9160,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1756.524719123967</v>
+        <v>1867.350283697285</v>
       </c>
       <c r="AB13" t="n">
-        <v>2403.35461310688</v>
+        <v>2554.991039834935</v>
       </c>
       <c r="AC13" t="n">
-        <v>2173.981821961343</v>
+        <v>2311.146280945534</v>
       </c>
       <c r="AD13" t="n">
-        <v>1756524.719123967</v>
+        <v>1867350.283697285</v>
       </c>
       <c r="AE13" t="n">
-        <v>2403354.61310688</v>
+        <v>2554991.039834935</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.057615117669196e-06</v>
+        <v>1.831568350157688e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.81987847222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>2173981.821961343</v>
+        <v>2311146.280945534</v>
       </c>
     </row>
     <row r="14">
@@ -9266,28 +9266,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1741.30893168077</v>
+        <v>1842.214610119372</v>
       </c>
       <c r="AB14" t="n">
-        <v>2382.535701453933</v>
+        <v>2520.599302337978</v>
       </c>
       <c r="AC14" t="n">
-        <v>2155.149838017028</v>
+        <v>2280.03684260618</v>
       </c>
       <c r="AD14" t="n">
-        <v>1741308.93168077</v>
+        <v>1842214.610119372</v>
       </c>
       <c r="AE14" t="n">
-        <v>2382535.701453933</v>
+        <v>2520599.302337978</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.059353663068104e-06</v>
+        <v>1.834579147445618e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.78732638888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>2155149.838017028</v>
+        <v>2280036.84260618</v>
       </c>
     </row>
     <row r="15">
@@ -9372,28 +9372,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1747.001195798247</v>
+        <v>1847.906874236848</v>
       </c>
       <c r="AB15" t="n">
-        <v>2390.324108344433</v>
+        <v>2528.387709228479</v>
       </c>
       <c r="AC15" t="n">
-        <v>2162.194930284997</v>
+        <v>2287.08193487415</v>
       </c>
       <c r="AD15" t="n">
-        <v>1747001.195798247</v>
+        <v>1847906.874236848</v>
       </c>
       <c r="AE15" t="n">
-        <v>2390324.108344433</v>
+        <v>2528387.709228479</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.059257077212609e-06</v>
+        <v>1.834411880929622e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.78732638888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>2162194.930284997</v>
+        <v>2287081.93487415</v>
       </c>
     </row>
     <row r="16">
@@ -9478,28 +9478,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1755.114264328362</v>
+        <v>1856.019942766963</v>
       </c>
       <c r="AB16" t="n">
-        <v>2401.424766630659</v>
+        <v>2539.488367514705</v>
       </c>
       <c r="AC16" t="n">
-        <v>2172.236157324257</v>
+        <v>2297.12316191341</v>
       </c>
       <c r="AD16" t="n">
-        <v>1755114.264328362</v>
+        <v>1856019.942766963</v>
       </c>
       <c r="AE16" t="n">
-        <v>2401424.766630659</v>
+        <v>2539488.367514705</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.059257077212609e-06</v>
+        <v>1.834411880929622e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.78732638888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>2172236.157324257</v>
+        <v>2297123.16191341</v>
       </c>
     </row>
   </sheetData>
@@ -9775,28 +9775,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2175.520091508003</v>
+        <v>2293.934593127285</v>
       </c>
       <c r="AB2" t="n">
-        <v>2976.642566373958</v>
+        <v>3138.662511568754</v>
       </c>
       <c r="AC2" t="n">
-        <v>2692.555977583307</v>
+        <v>2839.112966605015</v>
       </c>
       <c r="AD2" t="n">
-        <v>2175520.091508003</v>
+        <v>2293934.593127285</v>
       </c>
       <c r="AE2" t="n">
-        <v>2976642.566373958</v>
+        <v>3138662.511568754</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.954008839057955e-07</v>
+        <v>1.694291153414854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.12196180555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2692555.977583307</v>
+        <v>2839112.966605015</v>
       </c>
     </row>
     <row r="3">
@@ -9881,28 +9881,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1556.053263985636</v>
+        <v>1665.266969629077</v>
       </c>
       <c r="AB3" t="n">
-        <v>2129.060724010206</v>
+        <v>2278.491734240206</v>
       </c>
       <c r="AC3" t="n">
-        <v>1925.866156666165</v>
+        <v>2061.035681007554</v>
       </c>
       <c r="AD3" t="n">
-        <v>1556053.263985636</v>
+        <v>1665266.969629077</v>
       </c>
       <c r="AE3" t="n">
-        <v>2129060.724010206</v>
+        <v>2278491.734240206</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.070105365467097e-06</v>
+        <v>2.024869627137227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.85763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1925866.156666165</v>
+        <v>2061035.681007554</v>
       </c>
     </row>
     <row r="4">
@@ -9987,28 +9987,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1362.930460316623</v>
+        <v>1463.11414120192</v>
       </c>
       <c r="AB4" t="n">
-        <v>1864.821584053474</v>
+        <v>2001.897316032806</v>
       </c>
       <c r="AC4" t="n">
-        <v>1686.845629364941</v>
+        <v>1810.839045871163</v>
       </c>
       <c r="AD4" t="n">
-        <v>1362930.460316623</v>
+        <v>1463114.14120192</v>
       </c>
       <c r="AE4" t="n">
-        <v>1864821.584053474</v>
+        <v>2001897.316032805</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.131321988247368e-06</v>
+        <v>2.140704650625388e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.67491319444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1686845.629364942</v>
+        <v>1810839.045871163</v>
       </c>
     </row>
     <row r="5">
@@ -10093,28 +10093,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1286.010694517773</v>
+        <v>1377.079099298906</v>
       </c>
       <c r="AB5" t="n">
-        <v>1759.576567026919</v>
+        <v>1884.180376102932</v>
       </c>
       <c r="AC5" t="n">
-        <v>1591.645049051091</v>
+        <v>1704.356845471434</v>
       </c>
       <c r="AD5" t="n">
-        <v>1286010.694517773</v>
+        <v>1377079.099298906</v>
       </c>
       <c r="AE5" t="n">
-        <v>1759576.567026919</v>
+        <v>1884180.376102932</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.153092688602324e-06</v>
+        <v>2.181899500527867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.28211805555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1591645.049051091</v>
+        <v>1704356.845471434</v>
       </c>
     </row>
     <row r="6">
@@ -10199,28 +10199,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1291.440855317808</v>
+        <v>1382.509260098941</v>
       </c>
       <c r="AB6" t="n">
-        <v>1767.006352595314</v>
+        <v>1891.610161671328</v>
       </c>
       <c r="AC6" t="n">
-        <v>1598.365746312609</v>
+        <v>1711.077542732952</v>
       </c>
       <c r="AD6" t="n">
-        <v>1291440.855317808</v>
+        <v>1382509.260098941</v>
       </c>
       <c r="AE6" t="n">
-        <v>1767006.352595314</v>
+        <v>1891610.161671328</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.154170446045638e-06</v>
+        <v>2.183938849532941e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.26475694444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1598365.746312609</v>
+        <v>1711077.542732952</v>
       </c>
     </row>
   </sheetData>
@@ -10496,28 +10496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3079.61671638216</v>
+        <v>3221.895585866155</v>
       </c>
       <c r="AB2" t="n">
-        <v>4213.667454455102</v>
+        <v>4408.339680583836</v>
       </c>
       <c r="AC2" t="n">
-        <v>3811.520946521164</v>
+        <v>3987.613928612349</v>
       </c>
       <c r="AD2" t="n">
-        <v>3079616.71638216</v>
+        <v>3221895.585866155</v>
       </c>
       <c r="AE2" t="n">
-        <v>4213667.454455103</v>
+        <v>4408339.680583836</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.6298169619558e-07</v>
+        <v>1.389986950086275e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.32725694444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>3811520.946521164</v>
+        <v>3987613.928612349</v>
       </c>
     </row>
     <row r="3">
@@ -10602,28 +10602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2039.326057862369</v>
+        <v>2153.115035009446</v>
       </c>
       <c r="AB3" t="n">
-        <v>2790.295881083292</v>
+        <v>2945.9869796313</v>
       </c>
       <c r="AC3" t="n">
-        <v>2523.993958397567</v>
+        <v>2664.826117013983</v>
       </c>
       <c r="AD3" t="n">
-        <v>2039326.057862369</v>
+        <v>2153115.035009446</v>
       </c>
       <c r="AE3" t="n">
-        <v>2790295.881083292</v>
+        <v>2945986.9796313</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.683681203606606e-07</v>
+        <v>1.764156410163554e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.10546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2523993.958397567</v>
+        <v>2664826.117013982</v>
       </c>
     </row>
     <row r="4">
@@ -10708,28 +10708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1774.569803493737</v>
+        <v>1879.032742062434</v>
       </c>
       <c r="AB4" t="n">
-        <v>2428.044693634537</v>
+        <v>2570.97549476382</v>
       </c>
       <c r="AC4" t="n">
-        <v>2196.315515856186</v>
+        <v>2325.605201930331</v>
       </c>
       <c r="AD4" t="n">
-        <v>1774569.803493737</v>
+        <v>1879032.742062434</v>
       </c>
       <c r="AE4" t="n">
-        <v>2428044.693634537</v>
+        <v>2570975.49476382</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.040542064595378e-06</v>
+        <v>1.895641662198742e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.50173611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2196315.515856186</v>
+        <v>2325605.201930331</v>
       </c>
     </row>
     <row r="5">
@@ -10814,28 +10814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1631.46874667053</v>
+        <v>1735.846344384655</v>
       </c>
       <c r="AB5" t="n">
-        <v>2232.247514515959</v>
+        <v>2375.061548523045</v>
       </c>
       <c r="AC5" t="n">
-        <v>2019.204944709619</v>
+        <v>2148.389007751824</v>
       </c>
       <c r="AD5" t="n">
-        <v>1631468.74667053</v>
+        <v>1735846.344384655</v>
       </c>
       <c r="AE5" t="n">
-        <v>2232247.514515959</v>
+        <v>2375061.548523045</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.078691149405157e-06</v>
+        <v>1.965141009703056e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.7421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2019204.944709619</v>
+        <v>2148389.007751824</v>
       </c>
     </row>
     <row r="6">
@@ -10920,28 +10920,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1537.905847326064</v>
+        <v>1632.786903769768</v>
       </c>
       <c r="AB6" t="n">
-        <v>2104.230627929061</v>
+        <v>2234.051075212123</v>
       </c>
       <c r="AC6" t="n">
-        <v>1903.405810105745</v>
+        <v>2020.836376104255</v>
       </c>
       <c r="AD6" t="n">
-        <v>1537905.847326064</v>
+        <v>1632786.903769768</v>
       </c>
       <c r="AE6" t="n">
-        <v>2104230.627929061</v>
+        <v>2234051.075212123</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.101683705925645e-06</v>
+        <v>2.00702845427998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.31032986111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1903405.810105745</v>
+        <v>2020836.376104255</v>
       </c>
     </row>
     <row r="7">
@@ -11026,28 +11026,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1466.259023198295</v>
+        <v>1561.140079641999</v>
       </c>
       <c r="AB7" t="n">
-        <v>2006.200282322647</v>
+        <v>2136.02072960571</v>
       </c>
       <c r="AC7" t="n">
-        <v>1814.731343097553</v>
+        <v>1932.161909096063</v>
       </c>
       <c r="AD7" t="n">
-        <v>1466259.023198295</v>
+        <v>1561140.079641999</v>
       </c>
       <c r="AE7" t="n">
-        <v>2006200.282322647</v>
+        <v>2136020.72960571</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.116530917311072e-06</v>
+        <v>2.034076848984362e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.0390625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1814731.343097553</v>
+        <v>1932161.909096063</v>
       </c>
     </row>
     <row r="8">
@@ -11132,28 +11132,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1442.752064939</v>
+        <v>1547.044321798554</v>
       </c>
       <c r="AB8" t="n">
-        <v>1974.037024978472</v>
+        <v>2116.734291863361</v>
       </c>
       <c r="AC8" t="n">
-        <v>1785.637701892892</v>
+        <v>1914.716141903158</v>
       </c>
       <c r="AD8" t="n">
-        <v>1442752.064939</v>
+        <v>1547044.321798554</v>
       </c>
       <c r="AE8" t="n">
-        <v>1974037.024978472</v>
+        <v>2116734.291863361</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.119727191984324e-06</v>
+        <v>2.039899767288777e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.98263888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>1785637.701892892</v>
+        <v>1914716.141903158</v>
       </c>
     </row>
     <row r="9">
@@ -11238,28 +11238,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1454.079209126199</v>
+        <v>1558.371465985753</v>
       </c>
       <c r="AB9" t="n">
-        <v>1989.535323373731</v>
+        <v>2132.23259025862</v>
       </c>
       <c r="AC9" t="n">
-        <v>1799.656864441306</v>
+        <v>1928.735304451573</v>
       </c>
       <c r="AD9" t="n">
-        <v>1454079.209126199</v>
+        <v>1558371.465985753</v>
       </c>
       <c r="AE9" t="n">
-        <v>1989535.323373731</v>
+        <v>2132232.59025862</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.11931476944584e-06</v>
+        <v>2.039148422991433e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.99131944444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1799656.864441306</v>
+        <v>1928735.304451572</v>
       </c>
     </row>
   </sheetData>
@@ -11535,28 +11535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1615.711365922081</v>
+        <v>1721.257914180868</v>
       </c>
       <c r="AB2" t="n">
-        <v>2210.687571009354</v>
+        <v>2355.101014722105</v>
       </c>
       <c r="AC2" t="n">
-        <v>1999.702651951714</v>
+        <v>2130.333479282061</v>
       </c>
       <c r="AD2" t="n">
-        <v>1615711.365922081</v>
+        <v>1721257.914180868</v>
       </c>
       <c r="AE2" t="n">
-        <v>2210687.571009354</v>
+        <v>2355101.014722105</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009646294636209e-06</v>
+        <v>1.978581428978657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.06032986111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1999702.651951713</v>
+        <v>2130333.479282061</v>
       </c>
     </row>
     <row r="3">
@@ -11641,28 +11641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1202.116902445489</v>
+        <v>1298.860711228657</v>
       </c>
       <c r="AB3" t="n">
-        <v>1644.789379580726</v>
+        <v>1777.158526793479</v>
       </c>
       <c r="AC3" t="n">
-        <v>1487.812989669934</v>
+        <v>1607.549011253966</v>
       </c>
       <c r="AD3" t="n">
-        <v>1202116.902445489</v>
+        <v>1298860.711228658</v>
       </c>
       <c r="AE3" t="n">
-        <v>1644789.379580726</v>
+        <v>1777158.526793479</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.15784714764046e-06</v>
+        <v>2.269007350482841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.97873263888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1487812.989669934</v>
+        <v>1607549.011253966</v>
       </c>
     </row>
     <row r="4">
@@ -11747,28 +11747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1157.42588035691</v>
+        <v>1254.169689140079</v>
       </c>
       <c r="AB4" t="n">
-        <v>1583.641151530389</v>
+        <v>1716.010298743142</v>
       </c>
       <c r="AC4" t="n">
-        <v>1432.500662682644</v>
+        <v>1552.236684266676</v>
       </c>
       <c r="AD4" t="n">
-        <v>1157425.88035691</v>
+        <v>1254169.689140079</v>
       </c>
       <c r="AE4" t="n">
-        <v>1583641.151530389</v>
+        <v>1716010.298743142</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.175756616281457e-06</v>
+        <v>2.304104138580023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.65972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1432500.662682644</v>
+        <v>1552236.684266676</v>
       </c>
     </row>
     <row r="5">
@@ -11853,28 +11853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1166.559550759819</v>
+        <v>1263.303359542988</v>
       </c>
       <c r="AB5" t="n">
-        <v>1596.138242324748</v>
+        <v>1728.507389537501</v>
       </c>
       <c r="AC5" t="n">
-        <v>1443.805048671367</v>
+        <v>1563.541070255399</v>
       </c>
       <c r="AD5" t="n">
-        <v>1166559.550759819</v>
+        <v>1263303.359542988</v>
       </c>
       <c r="AE5" t="n">
-        <v>1596138.242324748</v>
+        <v>1728507.3895375</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.176652089713506e-06</v>
+        <v>2.305858977984882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.64453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>1443805.048671367</v>
+        <v>1563541.070255399</v>
       </c>
     </row>
   </sheetData>
@@ -12150,28 +12150,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6075.029003407445</v>
+        <v>6278.457792353195</v>
       </c>
       <c r="AB2" t="n">
-        <v>8312.122693826879</v>
+        <v>8590.46293750724</v>
       </c>
       <c r="AC2" t="n">
-        <v>7518.825370065199</v>
+        <v>7770.601211541681</v>
       </c>
       <c r="AD2" t="n">
-        <v>6075029.003407445</v>
+        <v>6278457.792353195</v>
       </c>
       <c r="AE2" t="n">
-        <v>8312122.693826878</v>
+        <v>8590462.93750724</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.350649151190803e-07</v>
+        <v>9.205691311422278e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.81944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>7518825.370065199</v>
+        <v>7770601.211541681</v>
       </c>
     </row>
     <row r="3">
@@ -12256,28 +12256,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3196.566421730912</v>
+        <v>3328.765354755101</v>
       </c>
       <c r="AB3" t="n">
-        <v>4373.683200770139</v>
+        <v>4554.563613139153</v>
       </c>
       <c r="AC3" t="n">
-        <v>3956.265014591397</v>
+        <v>4119.88245427116</v>
       </c>
       <c r="AD3" t="n">
-        <v>3196566.421730912</v>
+        <v>3328765.354755101</v>
       </c>
       <c r="AE3" t="n">
-        <v>4373683.200770139</v>
+        <v>4554563.613139153</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.89579693169462e-07</v>
+        <v>1.358457023755319e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.30642361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>3956265.014591397</v>
+        <v>4119882.45427116</v>
       </c>
     </row>
     <row r="4">
@@ -12362,28 +12362,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2649.942266256078</v>
+        <v>2771.880151935679</v>
       </c>
       <c r="AB4" t="n">
-        <v>3625.767915893664</v>
+        <v>3792.608710600353</v>
       </c>
       <c r="AC4" t="n">
-        <v>3279.729714797867</v>
+        <v>3430.647458220268</v>
       </c>
       <c r="AD4" t="n">
-        <v>2649942.266256078</v>
+        <v>2771880.151935679</v>
       </c>
       <c r="AE4" t="n">
-        <v>3625767.915893665</v>
+        <v>3792608.710600353</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.850107701593947e-07</v>
+        <v>1.522644398307878e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.47222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>3279729.714797867</v>
+        <v>3430647.458220268</v>
       </c>
     </row>
     <row r="5">
@@ -12468,28 +12468,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2412.575486011406</v>
+        <v>2524.423006055562</v>
       </c>
       <c r="AB5" t="n">
-        <v>3300.992215279609</v>
+        <v>3454.026926568367</v>
       </c>
       <c r="AC5" t="n">
-        <v>2985.950151224871</v>
+        <v>3124.37944445379</v>
       </c>
       <c r="AD5" t="n">
-        <v>2412575.486011406</v>
+        <v>2524423.006055562</v>
       </c>
       <c r="AE5" t="n">
-        <v>3300992.215279609</v>
+        <v>3454026.926568368</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.35645714720753e-07</v>
+        <v>1.609760868857831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.20269097222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2985950.151224871</v>
+        <v>3124379.44445379</v>
       </c>
     </row>
     <row r="6">
@@ -12574,28 +12574,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2270.838094514815</v>
+        <v>2382.6002737044</v>
       </c>
       <c r="AB6" t="n">
-        <v>3107.060863221565</v>
+        <v>3259.978807388126</v>
       </c>
       <c r="AC6" t="n">
-        <v>2810.527335222892</v>
+        <v>2948.851005419873</v>
       </c>
       <c r="AD6" t="n">
-        <v>2270838.094514815</v>
+        <v>2382600.2737044</v>
       </c>
       <c r="AE6" t="n">
-        <v>3107060.863221565</v>
+        <v>3259978.807388126</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.665627035550041e-07</v>
+        <v>1.662952967133133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.49088541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2810527.335222892</v>
+        <v>2948851.005419873</v>
       </c>
     </row>
     <row r="7">
@@ -12680,28 +12680,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2178.728556280182</v>
+        <v>2280.485710688897</v>
       </c>
       <c r="AB7" t="n">
-        <v>2981.032529422728</v>
+        <v>3120.26115729373</v>
       </c>
       <c r="AC7" t="n">
-        <v>2696.526968720055</v>
+        <v>2822.467811755538</v>
       </c>
       <c r="AD7" t="n">
-        <v>2178728.556280182</v>
+        <v>2280485.710688896</v>
       </c>
       <c r="AE7" t="n">
-        <v>2981032.529422728</v>
+        <v>3120261.15729373</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.878121509890714e-07</v>
+        <v>1.699512242108728e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.02864583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2696526.968720055</v>
+        <v>2822467.811755538</v>
       </c>
     </row>
     <row r="8">
@@ -12786,28 +12786,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2098.818503232053</v>
+        <v>2210.665933767661</v>
       </c>
       <c r="AB8" t="n">
-        <v>2871.696069459548</v>
+        <v>3024.730658278926</v>
       </c>
       <c r="AC8" t="n">
-        <v>2597.625427041075</v>
+        <v>2736.054609488812</v>
       </c>
       <c r="AD8" t="n">
-        <v>2098818.503232053</v>
+        <v>2210665.933767661</v>
       </c>
       <c r="AE8" t="n">
-        <v>2871696.069459548</v>
+        <v>3024730.658278926</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.003605659217094e-06</v>
+        <v>1.726684676212211e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.69661458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2597625.427041075</v>
+        <v>2736054.609488812</v>
       </c>
     </row>
     <row r="9">
@@ -12892,28 +12892,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2043.170031202419</v>
+        <v>2154.846869537432</v>
       </c>
       <c r="AB9" t="n">
-        <v>2795.555374991283</v>
+        <v>2948.356552035637</v>
       </c>
       <c r="AC9" t="n">
-        <v>2528.751493588727</v>
+        <v>2666.969540753766</v>
       </c>
       <c r="AD9" t="n">
-        <v>2043170.031202419</v>
+        <v>2154846.869537432</v>
       </c>
       <c r="AE9" t="n">
-        <v>2795555.374991283</v>
+        <v>2948356.552035637</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.014708974092553e-06</v>
+        <v>1.745787720794053e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.47092013888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2528751.493588727</v>
+        <v>2666969.540753766</v>
       </c>
     </row>
     <row r="10">
@@ -12998,28 +12998,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1991.019739427294</v>
+        <v>2092.691552981435</v>
       </c>
       <c r="AB10" t="n">
-        <v>2724.201045076061</v>
+        <v>2863.312905824683</v>
       </c>
       <c r="AC10" t="n">
-        <v>2464.207120774181</v>
+        <v>2590.042340777678</v>
       </c>
       <c r="AD10" t="n">
-        <v>1991019.739427294</v>
+        <v>2092691.552981435</v>
       </c>
       <c r="AE10" t="n">
-        <v>2724201.045076062</v>
+        <v>2863312.905824683</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.024376515492737e-06</v>
+        <v>1.762420544093761e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.27777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>2464207.120774182</v>
+        <v>2590042.340777677</v>
       </c>
     </row>
     <row r="11">
@@ -13104,28 +13104,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1947.324235680574</v>
+        <v>2048.996049234715</v>
       </c>
       <c r="AB11" t="n">
-        <v>2664.414929140224</v>
+        <v>2803.526789888847</v>
       </c>
       <c r="AC11" t="n">
-        <v>2410.126907832921</v>
+        <v>2535.962127836417</v>
       </c>
       <c r="AD11" t="n">
-        <v>1947324.235680575</v>
+        <v>2048996.049234715</v>
       </c>
       <c r="AE11" t="n">
-        <v>2664414.929140224</v>
+        <v>2803526.789888847</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.03251256518596e-06</v>
+        <v>1.776418464692524e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.11935763888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>2410126.907832921</v>
+        <v>2535962.127836416</v>
       </c>
     </row>
     <row r="12">
@@ -13210,28 +13210,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1904.265748232201</v>
+        <v>2005.937561786341</v>
       </c>
       <c r="AB12" t="n">
-        <v>2605.500407006961</v>
+        <v>2744.612267755584</v>
       </c>
       <c r="AC12" t="n">
-        <v>2356.835105005005</v>
+        <v>2482.670325008501</v>
       </c>
       <c r="AD12" t="n">
-        <v>1904265.748232201</v>
+        <v>2005937.561786341</v>
       </c>
       <c r="AE12" t="n">
-        <v>2605500.407006961</v>
+        <v>2744612.267755583</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.038159940855375e-06</v>
+        <v>1.786134668402254e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.00868055555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>2356835.105005005</v>
+        <v>2482670.325008501</v>
       </c>
     </row>
     <row r="13">
@@ -13316,28 +13316,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1851.484316854227</v>
+        <v>1963.246406535261</v>
       </c>
       <c r="AB13" t="n">
-        <v>2533.282524043207</v>
+        <v>2686.20034574021</v>
       </c>
       <c r="AC13" t="n">
-        <v>2291.509595432875</v>
+        <v>2429.833154848627</v>
       </c>
       <c r="AD13" t="n">
-        <v>1851484.316854227</v>
+        <v>1963246.406535261</v>
       </c>
       <c r="AE13" t="n">
-        <v>2533282.524043207</v>
+        <v>2686200.34574021</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.043328725366364e-06</v>
+        <v>1.79502746501794e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.90885416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>2291509.595432875</v>
+        <v>2429833.154848627</v>
       </c>
     </row>
     <row r="14">
@@ -13422,28 +13422,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1812.260425986086</v>
+        <v>1924.02251566712</v>
       </c>
       <c r="AB14" t="n">
-        <v>2479.614666121479</v>
+        <v>2632.532487818482</v>
       </c>
       <c r="AC14" t="n">
-        <v>2242.963722547886</v>
+        <v>2381.287281963638</v>
       </c>
       <c r="AD14" t="n">
-        <v>1812260.425986086</v>
+        <v>1924022.51566712</v>
       </c>
       <c r="AE14" t="n">
-        <v>2479614.666121479</v>
+        <v>2632532.487818482</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.048497509877353e-06</v>
+        <v>1.803920261633625e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2242963.722547886</v>
+        <v>2381287.281963638</v>
       </c>
     </row>
     <row r="15">
@@ -13528,28 +13528,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1794.547936913988</v>
+        <v>1896.305001814149</v>
       </c>
       <c r="AB15" t="n">
-        <v>2455.379657153166</v>
+        <v>2594.608162554438</v>
       </c>
       <c r="AC15" t="n">
-        <v>2221.04166882146</v>
+        <v>2346.982401075669</v>
       </c>
       <c r="AD15" t="n">
-        <v>1794547.936913988</v>
+        <v>1896305.001814149</v>
       </c>
       <c r="AE15" t="n">
-        <v>2455379.657153166</v>
+        <v>2594608.162554437</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.050124719815998e-06</v>
+        <v>1.806719845753377e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.78081597222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>2221041.66882146</v>
+        <v>2346982.401075669</v>
       </c>
     </row>
     <row r="16">
@@ -13634,28 +13634,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1795.340394084737</v>
+        <v>1897.097458984897</v>
       </c>
       <c r="AB16" t="n">
-        <v>2456.463932014928</v>
+        <v>2595.692437416199</v>
       </c>
       <c r="AC16" t="n">
-        <v>2222.022462012204</v>
+        <v>2347.963194266412</v>
       </c>
       <c r="AD16" t="n">
-        <v>1795340.394084737</v>
+        <v>1897097.458984897</v>
       </c>
       <c r="AE16" t="n">
-        <v>2456463.932014928</v>
+        <v>2595692.437416199</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.050699029206108e-06</v>
+        <v>1.807707934266231e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.76996527777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>2222022.462012204</v>
+        <v>2347963.194266412</v>
       </c>
     </row>
     <row r="17">
@@ -13740,28 +13740,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1801.949796951027</v>
+        <v>1903.706861851187</v>
       </c>
       <c r="AB17" t="n">
-        <v>2465.50720860286</v>
+        <v>2604.735714004131</v>
       </c>
       <c r="AC17" t="n">
-        <v>2230.202660974903</v>
+        <v>2356.143393229112</v>
       </c>
       <c r="AD17" t="n">
-        <v>1801949.796951027</v>
+        <v>1903706.861851187</v>
       </c>
       <c r="AE17" t="n">
-        <v>2465507.20860286</v>
+        <v>2604735.714004131</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.050794747437793e-06</v>
+        <v>1.807872615685041e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.76779513888889</v>
       </c>
       <c r="AH17" t="n">
-        <v>2230202.660974903</v>
+        <v>2356143.393229112</v>
       </c>
     </row>
     <row r="18">
@@ -13846,28 +13846,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1810.228236381543</v>
+        <v>1911.985301281704</v>
       </c>
       <c r="AB18" t="n">
-        <v>2476.834134650665</v>
+        <v>2616.062640051936</v>
       </c>
       <c r="AC18" t="n">
-        <v>2240.448561098146</v>
+        <v>2366.389293352354</v>
       </c>
       <c r="AD18" t="n">
-        <v>1810228.236381543</v>
+        <v>1911985.301281704</v>
       </c>
       <c r="AE18" t="n">
-        <v>2476834.134650665</v>
+        <v>2616062.640051936</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.050794747437793e-06</v>
+        <v>1.807872615685041e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.76779513888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>2240448.561098146</v>
+        <v>2366389.293352354</v>
       </c>
     </row>
   </sheetData>
@@ -14143,28 +14143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1321.283877384401</v>
+        <v>1424.608242324884</v>
       </c>
       <c r="AB2" t="n">
-        <v>1807.83889196804</v>
+        <v>1949.211846428879</v>
       </c>
       <c r="AC2" t="n">
-        <v>1635.30128543643</v>
+        <v>1763.181803541715</v>
       </c>
       <c r="AD2" t="n">
-        <v>1321283.8773844</v>
+        <v>1424608.242324885</v>
       </c>
       <c r="AE2" t="n">
-        <v>1807838.89196804</v>
+        <v>1949211.846428879</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.081823444425908e-06</v>
+        <v>2.168688593524183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.97960069444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1635301.28543643</v>
+        <v>1763181.803541715</v>
       </c>
     </row>
     <row r="3">
@@ -14249,28 +14249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1086.731916463835</v>
+        <v>1172.906760801598</v>
       </c>
       <c r="AB3" t="n">
-        <v>1486.91455133431</v>
+        <v>1604.822775123056</v>
       </c>
       <c r="AC3" t="n">
-        <v>1345.005513452643</v>
+        <v>1451.660741848222</v>
       </c>
       <c r="AD3" t="n">
-        <v>1086731.916463835</v>
+        <v>1172906.760801598</v>
       </c>
       <c r="AE3" t="n">
-        <v>1486914.55133431</v>
+        <v>1604822.775123056</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.183201435564931e-06</v>
+        <v>2.371917035420509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.01128472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1345005.513452643</v>
+        <v>1451660.741848222</v>
       </c>
     </row>
     <row r="4">
@@ -14355,28 +14355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1097.039829440597</v>
+        <v>1183.214673778361</v>
       </c>
       <c r="AB4" t="n">
-        <v>1501.018292622142</v>
+        <v>1618.926516410888</v>
       </c>
       <c r="AC4" t="n">
-        <v>1357.76321346669</v>
+        <v>1464.418441862269</v>
       </c>
       <c r="AD4" t="n">
-        <v>1097039.829440597</v>
+        <v>1183214.673778361</v>
       </c>
       <c r="AE4" t="n">
-        <v>1501018.292622142</v>
+        <v>1618926.516410888</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183659641174599e-06</v>
+        <v>2.372835582050549e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.00260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1357763.21346669</v>
+        <v>1464418.441862269</v>
       </c>
     </row>
   </sheetData>
@@ -14652,28 +14652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4164.43020358958</v>
+        <v>4331.187142388363</v>
       </c>
       <c r="AB2" t="n">
-        <v>5697.957126245746</v>
+        <v>5926.121326707177</v>
       </c>
       <c r="AC2" t="n">
-        <v>5154.15209524969</v>
+        <v>5360.54062464954</v>
       </c>
       <c r="AD2" t="n">
-        <v>4164430.20358958</v>
+        <v>4331187.142388363</v>
       </c>
       <c r="AE2" t="n">
-        <v>5697957.126245745</v>
+        <v>5926121.326707177</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.547979116739401e-07</v>
+        <v>1.159695757577407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.98177083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5154152.09524969</v>
+        <v>5360540.624649541</v>
       </c>
     </row>
     <row r="3">
@@ -14758,28 +14758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2515.452888779549</v>
+        <v>2642.78222840048</v>
       </c>
       <c r="AB3" t="n">
-        <v>3441.753616377679</v>
+        <v>3615.971236221057</v>
       </c>
       <c r="AC3" t="n">
-        <v>3113.277481762004</v>
+        <v>3270.868016483487</v>
       </c>
       <c r="AD3" t="n">
-        <v>2515452.888779548</v>
+        <v>2642782.22840048</v>
       </c>
       <c r="AE3" t="n">
-        <v>3441753.61637768</v>
+        <v>3615971.236221056</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.842757208411293e-07</v>
+        <v>1.566118009397087e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.42274305555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>3113277.481762004</v>
+        <v>3270868.016483487</v>
       </c>
     </row>
     <row r="4">
@@ -14864,28 +14864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2149.517132527516</v>
+        <v>2257.388650368962</v>
       </c>
       <c r="AB4" t="n">
-        <v>2941.064170727268</v>
+        <v>3088.658740393608</v>
       </c>
       <c r="AC4" t="n">
-        <v>2660.373134082545</v>
+        <v>2793.881485170094</v>
       </c>
       <c r="AD4" t="n">
-        <v>2149517.132527515</v>
+        <v>2257388.650368962</v>
       </c>
       <c r="AE4" t="n">
-        <v>2941064.170727267</v>
+        <v>3088658.740393608</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.679664569684519e-07</v>
+        <v>1.714340521877726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.31119791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2660373.134082545</v>
+        <v>2793881.485170094</v>
       </c>
     </row>
     <row r="5">
@@ -14970,28 +14970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1976.92808948983</v>
+        <v>2084.714266476702</v>
       </c>
       <c r="AB5" t="n">
-        <v>2704.920227951902</v>
+        <v>2852.398030495865</v>
       </c>
       <c r="AC5" t="n">
-        <v>2446.766437775556</v>
+        <v>2580.169165831118</v>
       </c>
       <c r="AD5" t="n">
-        <v>1976928.089489829</v>
+        <v>2084714.266476702</v>
       </c>
       <c r="AE5" t="n">
-        <v>2704920.227951902</v>
+        <v>2852398.030495865</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.010956228677136e-06</v>
+        <v>1.790478602010467e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.36284722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2446766.437775556</v>
+        <v>2580169.165831118</v>
       </c>
     </row>
     <row r="6">
@@ -15076,28 +15076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1862.472684961839</v>
+        <v>1970.344113294731</v>
       </c>
       <c r="AB6" t="n">
-        <v>2548.317294060627</v>
+        <v>2695.91174125724</v>
       </c>
       <c r="AC6" t="n">
-        <v>2305.109468101267</v>
+        <v>2438.617708407541</v>
       </c>
       <c r="AD6" t="n">
-        <v>1862472.684961839</v>
+        <v>1970344.113294731</v>
       </c>
       <c r="AE6" t="n">
-        <v>2548317.294060627</v>
+        <v>2695911.74125724</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.03762580927419e-06</v>
+        <v>1.837712410981705e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.81380208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2305109.468101267</v>
+        <v>2438617.708407541</v>
       </c>
     </row>
     <row r="7">
@@ -15182,28 +15182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1784.714734928933</v>
+        <v>1882.772001026062</v>
       </c>
       <c r="AB7" t="n">
-        <v>2441.925436386959</v>
+        <v>2576.091713842319</v>
       </c>
       <c r="AC7" t="n">
-        <v>2208.871500002063</v>
+        <v>2330.233136240636</v>
       </c>
       <c r="AD7" t="n">
-        <v>1784714.734928933</v>
+        <v>1882772.001026062</v>
       </c>
       <c r="AE7" t="n">
-        <v>2441925.436386959</v>
+        <v>2576091.713842319</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.055637727513245e-06</v>
+        <v>1.869612856592877e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.45789930555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>2208871.500002063</v>
+        <v>2330233.136240636</v>
       </c>
     </row>
     <row r="8">
@@ -15288,28 +15288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1715.126910874824</v>
+        <v>1813.184176971952</v>
       </c>
       <c r="AB8" t="n">
-        <v>2346.712305517999</v>
+        <v>2480.878582973358</v>
       </c>
       <c r="AC8" t="n">
-        <v>2122.745376710767</v>
+        <v>2244.10701294934</v>
       </c>
       <c r="AD8" t="n">
-        <v>1715126.910874824</v>
+        <v>1813184.176971952</v>
       </c>
       <c r="AE8" t="n">
-        <v>2346712.305517999</v>
+        <v>2480878.582973358</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.069470084613956e-06</v>
+        <v>1.89411098885781e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.19314236111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>2122745.376710767</v>
+        <v>2244107.01294934</v>
       </c>
     </row>
     <row r="9">
@@ -15394,28 +15394,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1662.249858116363</v>
+        <v>1760.307124213492</v>
       </c>
       <c r="AB9" t="n">
-        <v>2274.363589162944</v>
+        <v>2408.529866618303</v>
       </c>
       <c r="AC9" t="n">
-        <v>2057.301520302578</v>
+        <v>2178.663156541151</v>
       </c>
       <c r="AD9" t="n">
-        <v>1662249.858116363</v>
+        <v>1760307.124213492</v>
       </c>
       <c r="AE9" t="n">
-        <v>2274363.589162944</v>
+        <v>2408529.866618304</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079321907297196e-06</v>
+        <v>1.91155929888823e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.00868055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>2057301.520302578</v>
+        <v>2178663.156541151</v>
       </c>
     </row>
     <row r="10">
@@ -15500,28 +15500,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1606.126809070599</v>
+        <v>1713.91289654892</v>
       </c>
       <c r="AB10" t="n">
-        <v>2197.573557484352</v>
+        <v>2345.051237558766</v>
       </c>
       <c r="AC10" t="n">
-        <v>1987.840221471904</v>
+        <v>2121.24283874624</v>
       </c>
       <c r="AD10" t="n">
-        <v>1606126.809070599</v>
+        <v>1713912.89654892</v>
       </c>
       <c r="AE10" t="n">
-        <v>2197573.557484352</v>
+        <v>2345051.237558766</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.085790275725587e-06</v>
+        <v>1.923015260019314e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1987840.221471904</v>
+        <v>2121242.83874624</v>
       </c>
     </row>
     <row r="11">
@@ -15606,28 +15606,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1596.457333450933</v>
+        <v>1704.243420929255</v>
       </c>
       <c r="AB11" t="n">
-        <v>2184.343354354368</v>
+        <v>2331.821034428782</v>
       </c>
       <c r="AC11" t="n">
-        <v>1975.872690359939</v>
+        <v>2109.275307634275</v>
       </c>
       <c r="AD11" t="n">
-        <v>1596457.333450933</v>
+        <v>1704243.420929255</v>
       </c>
       <c r="AE11" t="n">
-        <v>2184343.354354368</v>
+        <v>2331821.034428782</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.087382489492575e-06</v>
+        <v>1.925835188913119e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.86111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>1975872.690359939</v>
+        <v>2109275.307634275</v>
       </c>
     </row>
     <row r="12">
@@ -15712,28 +15712,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1604.904788093208</v>
+        <v>1712.690875571529</v>
       </c>
       <c r="AB12" t="n">
-        <v>2195.901534471325</v>
+        <v>2343.379214545739</v>
       </c>
       <c r="AC12" t="n">
-        <v>1986.327773988541</v>
+        <v>2119.730391262878</v>
       </c>
       <c r="AD12" t="n">
-        <v>1604904.788093208</v>
+        <v>1712690.875571529</v>
       </c>
       <c r="AE12" t="n">
-        <v>2195901.534471325</v>
+        <v>2343379.214545739</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.087482002853012e-06</v>
+        <v>1.926011434468982e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.85677083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1986327.773988541</v>
+        <v>2119730.391262878</v>
       </c>
     </row>
   </sheetData>
@@ -16009,28 +16009,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5044.536470450462</v>
+        <v>5234.407430924007</v>
       </c>
       <c r="AB2" t="n">
-        <v>6902.157348113055</v>
+        <v>7161.947172748564</v>
       </c>
       <c r="AC2" t="n">
-        <v>6243.425138047565</v>
+        <v>6478.420986437161</v>
       </c>
       <c r="AD2" t="n">
-        <v>5044536.470450462</v>
+        <v>5234407.430924007</v>
       </c>
       <c r="AE2" t="n">
-        <v>6902157.348113055</v>
+        <v>7161947.172748565</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.91844832226921e-07</v>
+        <v>1.032125707983897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.75086805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>6243425.138047566</v>
+        <v>6478420.986437161</v>
       </c>
     </row>
     <row r="3">
@@ -16115,28 +16115,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2843.685309443754</v>
+        <v>2973.543209262896</v>
       </c>
       <c r="AB3" t="n">
-        <v>3890.855694922883</v>
+        <v>4068.533002381655</v>
       </c>
       <c r="AC3" t="n">
-        <v>3519.517888249561</v>
+        <v>3680.237922856129</v>
       </c>
       <c r="AD3" t="n">
-        <v>2843685.309443754</v>
+        <v>2973543.209262896</v>
       </c>
       <c r="AE3" t="n">
-        <v>3890855.694922883</v>
+        <v>4068533.002381654</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.356030003599196e-07</v>
+        <v>1.457218668438549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.32335069444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>3519517.888249561</v>
+        <v>3680237.922856128</v>
       </c>
     </row>
     <row r="4">
@@ -16221,28 +16221,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2395.127783527978</v>
+        <v>2515.068742999314</v>
       </c>
       <c r="AB4" t="n">
-        <v>3277.119499003474</v>
+        <v>3441.228011173847</v>
       </c>
       <c r="AC4" t="n">
-        <v>2964.355813484562</v>
+        <v>3112.802039581133</v>
       </c>
       <c r="AD4" t="n">
-        <v>2395127.783527978</v>
+        <v>2515068.742999314</v>
       </c>
       <c r="AE4" t="n">
-        <v>3277119.499003474</v>
+        <v>3441228.011173847</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.24233470293078e-07</v>
+        <v>1.611782468859861e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.89279513888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2964355.813484562</v>
+        <v>3112802.039581133</v>
       </c>
     </row>
     <row r="5">
@@ -16327,28 +16327,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2191.098463530433</v>
+        <v>2301.122572162516</v>
       </c>
       <c r="AB5" t="n">
-        <v>2997.957582244487</v>
+        <v>3148.497421596011</v>
       </c>
       <c r="AC5" t="n">
-        <v>2711.836718254854</v>
+        <v>2848.009246622654</v>
       </c>
       <c r="AD5" t="n">
-        <v>2191098.463530433</v>
+        <v>2301122.572162515</v>
       </c>
       <c r="AE5" t="n">
-        <v>2997957.582244487</v>
+        <v>3148497.421596012</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.717175614453862e-07</v>
+        <v>1.694590577556427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.77517361111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2711836.718254854</v>
+        <v>2848009.246622654</v>
       </c>
     </row>
     <row r="6">
@@ -16433,28 +16433,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2074.389878542533</v>
+        <v>2184.243394974023</v>
       </c>
       <c r="AB6" t="n">
-        <v>2838.271747444486</v>
+        <v>2988.578175021154</v>
       </c>
       <c r="AC6" t="n">
-        <v>2567.3910754078</v>
+        <v>2703.352468492947</v>
       </c>
       <c r="AD6" t="n">
-        <v>2074389.878542533</v>
+        <v>2184243.394974023</v>
       </c>
       <c r="AE6" t="n">
-        <v>2838271.747444486</v>
+        <v>2988578.175021154</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.000578528552333e-06</v>
+        <v>1.744921584074258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2567391.0754078</v>
+        <v>2703352.468492947</v>
       </c>
     </row>
     <row r="7">
@@ -16539,28 +16539,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1977.815344058379</v>
+        <v>2087.754111835889</v>
       </c>
       <c r="AB7" t="n">
-        <v>2706.134208795501</v>
+        <v>2856.557281024819</v>
       </c>
       <c r="AC7" t="n">
-        <v>2447.864557991275</v>
+        <v>2583.931463327134</v>
       </c>
       <c r="AD7" t="n">
-        <v>1977815.344058379</v>
+        <v>2087754.11183589</v>
       </c>
       <c r="AE7" t="n">
-        <v>2706134.208795501</v>
+        <v>2856557.281024819</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.020761704873745e-06</v>
+        <v>1.780119281199903e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.72916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2447864.557991275</v>
+        <v>2583931.463327134</v>
       </c>
     </row>
     <row r="8">
@@ -16645,28 +16645,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1914.591553566793</v>
+        <v>2014.528219159028</v>
       </c>
       <c r="AB8" t="n">
-        <v>2619.628629408131</v>
+        <v>2756.366384165949</v>
       </c>
       <c r="AC8" t="n">
-        <v>2369.614949689291</v>
+        <v>2493.302645045668</v>
       </c>
       <c r="AD8" t="n">
-        <v>1914591.553566793</v>
+        <v>2014528.219159028</v>
       </c>
       <c r="AE8" t="n">
-        <v>2619628.62940813</v>
+        <v>2756366.384165949</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.034509665556447e-06</v>
+        <v>1.804094524169546e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.45355902777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>2369614.949689291</v>
+        <v>2493302.645045668</v>
       </c>
     </row>
     <row r="9">
@@ -16751,28 +16751,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1856.99013508053</v>
+        <v>1956.926800672766</v>
       </c>
       <c r="AB9" t="n">
-        <v>2540.815827439991</v>
+        <v>2677.55358219781</v>
       </c>
       <c r="AC9" t="n">
-        <v>2298.323930926529</v>
+        <v>2422.011626282906</v>
       </c>
       <c r="AD9" t="n">
-        <v>1856990.13508053</v>
+        <v>1956926.800672766</v>
       </c>
       <c r="AE9" t="n">
-        <v>2540815.827439991</v>
+        <v>2677553.58219781</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.046015051092324e-06</v>
+        <v>1.824158911903005e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.23003472222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>2298323.930926529</v>
+        <v>2422011.626282906</v>
       </c>
     </row>
     <row r="10">
@@ -16857,28 +16857,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1806.240377033551</v>
+        <v>1906.177042625787</v>
       </c>
       <c r="AB10" t="n">
-        <v>2471.377769558805</v>
+        <v>2608.115524316623</v>
       </c>
       <c r="AC10" t="n">
-        <v>2235.512943832596</v>
+        <v>2359.200639188973</v>
       </c>
       <c r="AD10" t="n">
-        <v>1806240.377033551</v>
+        <v>1906177.042625787</v>
       </c>
       <c r="AE10" t="n">
-        <v>2471377.769558805</v>
+        <v>2608115.524316623</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.05410782227434e-06</v>
+        <v>1.8382719981901e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.07378472222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>2235512.943832596</v>
+        <v>2359200.639188973</v>
       </c>
     </row>
     <row r="11">
@@ -16963,28 +16963,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1749.673439219421</v>
+        <v>1859.526866142359</v>
       </c>
       <c r="AB11" t="n">
-        <v>2393.980389684342</v>
+        <v>2544.286694791462</v>
       </c>
       <c r="AC11" t="n">
-        <v>2165.502261265448</v>
+        <v>2301.463543569368</v>
       </c>
       <c r="AD11" t="n">
-        <v>1749673.439219421</v>
+        <v>1859526.86614236</v>
       </c>
       <c r="AE11" t="n">
-        <v>2393980.389684342</v>
+        <v>2544286.694791462</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.060933050982064e-06</v>
+        <v>1.85017460108283e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.94357638888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>2165502.261265448</v>
+        <v>2301463.543569368</v>
       </c>
     </row>
     <row r="12">
@@ -17069,28 +17069,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1704.963348619768</v>
+        <v>1814.816775542707</v>
       </c>
       <c r="AB12" t="n">
-        <v>2332.80607125591</v>
+        <v>2483.11237636303</v>
       </c>
       <c r="AC12" t="n">
-        <v>2110.16633392913</v>
+        <v>2246.12761623305</v>
       </c>
       <c r="AD12" t="n">
-        <v>1704963.348619768</v>
+        <v>1814816.775542707</v>
       </c>
       <c r="AE12" t="n">
-        <v>2332806.07125591</v>
+        <v>2483112.37636303</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.06629573068099e-06</v>
+        <v>1.859526646212832e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.84592013888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>2110166.33392913</v>
+        <v>2246127.61623305</v>
       </c>
     </row>
     <row r="13">
@@ -17175,28 +17175,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1691.372054897245</v>
+        <v>1801.225481820183</v>
       </c>
       <c r="AB13" t="n">
-        <v>2314.209863579193</v>
+        <v>2464.516168686313</v>
       </c>
       <c r="AC13" t="n">
-        <v>2093.344922213138</v>
+        <v>2229.306204517057</v>
       </c>
       <c r="AD13" t="n">
-        <v>1691372.054897245</v>
+        <v>1801225.481820183</v>
       </c>
       <c r="AE13" t="n">
-        <v>2314209.863579193</v>
+        <v>2464516.168686313</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.068538305827814e-06</v>
+        <v>1.863437501449016e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.80251736111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>2093344.922213137</v>
+        <v>2229306.204517057</v>
       </c>
     </row>
     <row r="14">
@@ -17281,28 +17281,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1699.887027455684</v>
+        <v>1809.740454378623</v>
       </c>
       <c r="AB14" t="n">
-        <v>2325.860424687726</v>
+        <v>2476.166729794847</v>
       </c>
       <c r="AC14" t="n">
-        <v>2103.883570121138</v>
+        <v>2239.844852425058</v>
       </c>
       <c r="AD14" t="n">
-        <v>1699887.027455684</v>
+        <v>1809740.454378623</v>
       </c>
       <c r="AE14" t="n">
-        <v>2325860.424687726</v>
+        <v>2476166.729794846</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.068343299293307e-06</v>
+        <v>1.863097427080652e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.80685763888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>2103883.570121138</v>
+        <v>2239844.852425058</v>
       </c>
     </row>
     <row r="15">
@@ -17387,28 +17387,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1708.23099970401</v>
+        <v>1818.084426626949</v>
       </c>
       <c r="AB15" t="n">
-        <v>2337.277015627962</v>
+        <v>2487.583320735081</v>
       </c>
       <c r="AC15" t="n">
-        <v>2114.210577645323</v>
+        <v>2250.171859949243</v>
       </c>
       <c r="AD15" t="n">
-        <v>1708230.99970401</v>
+        <v>1818084.426626949</v>
       </c>
       <c r="AE15" t="n">
-        <v>2337277.015627962</v>
+        <v>2487583.320735081</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.068343299293307e-06</v>
+        <v>1.863097427080652e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.80685763888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>2114210.577645323</v>
+        <v>2250171.859949243</v>
       </c>
     </row>
   </sheetData>
@@ -17684,28 +17684,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7309.37741170018</v>
+        <v>7536.544835769703</v>
       </c>
       <c r="AB2" t="n">
-        <v>10001.01264166159</v>
+        <v>10311.83313319296</v>
       </c>
       <c r="AC2" t="n">
-        <v>9046.530031650427</v>
+        <v>9327.686251709338</v>
       </c>
       <c r="AD2" t="n">
-        <v>7309377.411700181</v>
+        <v>7536544.835769704</v>
       </c>
       <c r="AE2" t="n">
-        <v>10001012.64166159</v>
+        <v>10311833.13319296</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.832671998043634e-07</v>
+        <v>8.215222104674392e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.25911458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>9046530.031650428</v>
+        <v>9327686.251709338</v>
       </c>
     </row>
     <row r="3">
@@ -17790,28 +17790,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3568.656818025421</v>
+        <v>3713.21018035872</v>
       </c>
       <c r="AB3" t="n">
-        <v>4882.793696450054</v>
+        <v>5080.577984038748</v>
       </c>
       <c r="AC3" t="n">
-        <v>4416.78671910467</v>
+        <v>4595.694751877882</v>
       </c>
       <c r="AD3" t="n">
-        <v>3568656.818025421</v>
+        <v>3713210.18035872</v>
       </c>
       <c r="AE3" t="n">
-        <v>4882793.696450054</v>
+        <v>5080577.984038748</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.470642710899779e-07</v>
+        <v>1.26995974813837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.33723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4416786.71910467</v>
+        <v>4595694.751877883</v>
       </c>
     </row>
     <row r="4">
@@ -17896,28 +17896,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2916.21600765774</v>
+        <v>3040.179860197912</v>
       </c>
       <c r="AB4" t="n">
-        <v>3990.095396047836</v>
+        <v>4159.708207992508</v>
       </c>
       <c r="AC4" t="n">
-        <v>3609.286291582941</v>
+        <v>3762.711494808683</v>
       </c>
       <c r="AD4" t="n">
-        <v>2916216.00765774</v>
+        <v>3040179.860197912</v>
       </c>
       <c r="AE4" t="n">
-        <v>3990095.396047836</v>
+        <v>4159708.207992508</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.476704320619086e-07</v>
+        <v>1.440983553978622e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.09505208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3609286.291582941</v>
+        <v>3762711.494808683</v>
       </c>
     </row>
     <row r="5">
@@ -18002,28 +18002,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2628.443658856958</v>
+        <v>2752.407421888579</v>
       </c>
       <c r="AB5" t="n">
-        <v>3596.352572798566</v>
+        <v>3765.96526227369</v>
       </c>
       <c r="AC5" t="n">
-        <v>3253.121730763073</v>
+        <v>3406.546823207588</v>
       </c>
       <c r="AD5" t="n">
-        <v>2628443.658856958</v>
+        <v>2752407.421888579</v>
       </c>
       <c r="AE5" t="n">
-        <v>3596352.572798566</v>
+        <v>3765965.26227369</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.016909525463692e-07</v>
+        <v>1.532814858517728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.65190972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>3253121.730763073</v>
+        <v>3406546.823207588</v>
       </c>
     </row>
     <row r="6">
@@ -18108,28 +18108,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2466.329384246399</v>
+        <v>2590.207806423448</v>
       </c>
       <c r="AB6" t="n">
-        <v>3374.540670299353</v>
+        <v>3544.036592652279</v>
       </c>
       <c r="AC6" t="n">
-        <v>3052.479244923432</v>
+        <v>3205.798714336009</v>
       </c>
       <c r="AD6" t="n">
-        <v>2466329.384246399</v>
+        <v>2590207.806423448</v>
       </c>
       <c r="AE6" t="n">
-        <v>3374540.670299353</v>
+        <v>3544036.592652278</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.351949687353377e-07</v>
+        <v>1.589769465514108e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.83810763888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>3052479.244923432</v>
+        <v>3205798.714336009</v>
       </c>
     </row>
     <row r="7">
@@ -18214,28 +18214,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2365.677162052926</v>
+        <v>2479.218248414677</v>
       </c>
       <c r="AB7" t="n">
-        <v>3236.823859431583</v>
+        <v>3392.175782870947</v>
       </c>
       <c r="AC7" t="n">
-        <v>2927.90593319813</v>
+        <v>3068.431287102228</v>
       </c>
       <c r="AD7" t="n">
-        <v>2365677.162052926</v>
+        <v>2479218.248414677</v>
       </c>
       <c r="AE7" t="n">
-        <v>3236823.859431583</v>
+        <v>3392175.782870947</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.579701707514342e-07</v>
+        <v>1.628485799483557e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.31944444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>2927905.93319813</v>
+        <v>3068431.287102228</v>
       </c>
     </row>
     <row r="8">
@@ -18320,28 +18320,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2278.111007414101</v>
+        <v>2391.737345121872</v>
       </c>
       <c r="AB8" t="n">
-        <v>3117.011983508641</v>
+        <v>3272.480551600655</v>
       </c>
       <c r="AC8" t="n">
-        <v>2819.528734556254</v>
+        <v>2960.159600711064</v>
       </c>
       <c r="AD8" t="n">
-        <v>2278111.007414101</v>
+        <v>2391737.345121872</v>
       </c>
       <c r="AE8" t="n">
-        <v>3117011.983508641</v>
+        <v>3272480.551600655</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.74439841630843e-07</v>
+        <v>1.656483148428406e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.95920138888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>2819528.734556254</v>
+        <v>2960159.600711064</v>
       </c>
     </row>
     <row r="9">
@@ -18426,28 +18426,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2217.844926390225</v>
+        <v>2331.471264097996</v>
       </c>
       <c r="AB9" t="n">
-        <v>3034.553272699919</v>
+        <v>3190.021840791932</v>
       </c>
       <c r="AC9" t="n">
-        <v>2744.939767375592</v>
+        <v>2885.570633530403</v>
       </c>
       <c r="AD9" t="n">
-        <v>2217844.926390225</v>
+        <v>2331471.264097997</v>
       </c>
       <c r="AE9" t="n">
-        <v>3034553.272699919</v>
+        <v>3190021.840791932</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.87145016309244e-07</v>
+        <v>1.678081103328719e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.68793402777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>2744939.767375592</v>
+        <v>2885570.633530403</v>
       </c>
     </row>
     <row r="10">
@@ -18532,28 +18532,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2168.091936461511</v>
+        <v>2281.547681968692</v>
       </c>
       <c r="AB10" t="n">
-        <v>2966.479036932274</v>
+        <v>3121.714193249614</v>
       </c>
       <c r="AC10" t="n">
-        <v>2683.362441126935</v>
+        <v>2823.78217199914</v>
       </c>
       <c r="AD10" t="n">
-        <v>2168091.936461511</v>
+        <v>2281547.681968692</v>
       </c>
       <c r="AE10" t="n">
-        <v>2966479.036932274</v>
+        <v>3121714.193249614</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.965562568117632e-07</v>
+        <v>1.694079588440061e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.49262152777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>2683362.441126935</v>
+        <v>2823782.17199914</v>
       </c>
     </row>
     <row r="11">
@@ -18638,28 +18638,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2122.011654798105</v>
+        <v>2225.30065669058</v>
       </c>
       <c r="AB11" t="n">
-        <v>2903.429962641852</v>
+        <v>3044.754531820473</v>
       </c>
       <c r="AC11" t="n">
-        <v>2626.33068199686</v>
+        <v>2754.167432643237</v>
       </c>
       <c r="AD11" t="n">
-        <v>2122011.654798105</v>
+        <v>2225300.65669058</v>
       </c>
       <c r="AE11" t="n">
-        <v>2903429.962641852</v>
+        <v>3044754.531820473</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.005308710479106e-06</v>
+        <v>1.70895817959361e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.31684027777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>2626330.68199686</v>
+        <v>2754167.432643237</v>
       </c>
     </row>
     <row r="12">
@@ -18744,28 +18744,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2082.770232639793</v>
+        <v>2186.059234532266</v>
       </c>
       <c r="AB12" t="n">
-        <v>2849.738117635487</v>
+        <v>2991.062686813929</v>
       </c>
       <c r="AC12" t="n">
-        <v>2577.763111320924</v>
+        <v>2705.599861967255</v>
       </c>
       <c r="AD12" t="n">
-        <v>2082770.232639793</v>
+        <v>2186059.234532266</v>
       </c>
       <c r="AE12" t="n">
-        <v>2849738.117635487</v>
+        <v>2991062.686813929</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.011614241615794e-06</v>
+        <v>1.719677164618209e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.18880208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>2577763.111320924</v>
+        <v>2705599.861967254</v>
       </c>
     </row>
     <row r="13">
@@ -18850,28 +18850,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2044.03263142603</v>
+        <v>2147.321633318503</v>
       </c>
       <c r="AB13" t="n">
-        <v>2796.735622672465</v>
+        <v>2938.060191850907</v>
       </c>
       <c r="AC13" t="n">
-        <v>2529.819100087703</v>
+        <v>2657.655850734034</v>
       </c>
       <c r="AD13" t="n">
-        <v>2044032.63142603</v>
+        <v>2147321.633318503</v>
       </c>
       <c r="AE13" t="n">
-        <v>2796735.622672465</v>
+        <v>2938060.191850907</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.017543323132381e-06</v>
+        <v>1.729756210238355e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>20.07161458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>2529819.100087703</v>
+        <v>2657655.850734034</v>
       </c>
     </row>
     <row r="14">
@@ -18956,28 +18956,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1994.842506638061</v>
+        <v>2108.383503491261</v>
       </c>
       <c r="AB14" t="n">
-        <v>2729.43152382242</v>
+        <v>2884.783324792225</v>
       </c>
       <c r="AC14" t="n">
-        <v>2468.938409970011</v>
+        <v>2609.46365309288</v>
       </c>
       <c r="AD14" t="n">
-        <v>1994842.506638061</v>
+        <v>2108383.503491261</v>
       </c>
       <c r="AE14" t="n">
-        <v>2729431.52382242</v>
+        <v>2884783.324792225</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.022813617813792e-06</v>
+        <v>1.738715361900707e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.96744791666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>2468938.409970011</v>
+        <v>2609463.65309288</v>
       </c>
     </row>
     <row r="15">
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1961.996568743965</v>
+        <v>2075.537565597164</v>
       </c>
       <c r="AB15" t="n">
-        <v>2684.490262535206</v>
+        <v>2839.842063505012</v>
       </c>
       <c r="AC15" t="n">
-        <v>2428.286279584593</v>
+        <v>2568.811522707463</v>
       </c>
       <c r="AD15" t="n">
-        <v>1961996.568743965</v>
+        <v>2075537.565597164</v>
       </c>
       <c r="AE15" t="n">
-        <v>2684490.262535206</v>
+        <v>2839842.063505013</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.026860451229875e-06</v>
+        <v>1.745594710498584e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.88932291666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>2428286.279584593</v>
+        <v>2568811.522707463</v>
       </c>
     </row>
     <row r="16">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1929.429387811911</v>
+        <v>2042.97038466511</v>
       </c>
       <c r="AB16" t="n">
-        <v>2639.930408821348</v>
+        <v>2795.282209791154</v>
       </c>
       <c r="AC16" t="n">
-        <v>2387.979155769037</v>
+        <v>2528.504398891908</v>
       </c>
       <c r="AD16" t="n">
-        <v>1929429.387811911</v>
+        <v>2042970.38466511</v>
       </c>
       <c r="AE16" t="n">
-        <v>2639930.408821348</v>
+        <v>2795282.209791155</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.030154385405757e-06</v>
+        <v>1.751194180287554e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.82638888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>2387979.155769037</v>
+        <v>2528504.398891908</v>
       </c>
     </row>
     <row r="17">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1902.971562177535</v>
+        <v>2006.345815416029</v>
       </c>
       <c r="AB17" t="n">
-        <v>2603.729644551509</v>
+        <v>2745.170858382602</v>
       </c>
       <c r="AC17" t="n">
-        <v>2355.23334163302</v>
+        <v>2483.175604530064</v>
       </c>
       <c r="AD17" t="n">
-        <v>1902971.562177535</v>
+        <v>2006345.815416029</v>
       </c>
       <c r="AE17" t="n">
-        <v>2603729.644551509</v>
+        <v>2745170.858382602</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.032413083126362e-06</v>
+        <v>1.755033816714276e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.78298611111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>2355233.34163302</v>
+        <v>2483175.604530063</v>
       </c>
     </row>
     <row r="18">
@@ -19380,28 +19380,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1891.085253895571</v>
+        <v>1994.459507134065</v>
       </c>
       <c r="AB18" t="n">
-        <v>2587.466273173213</v>
+        <v>2728.907487004305</v>
       </c>
       <c r="AC18" t="n">
-        <v>2340.522123593284</v>
+        <v>2468.464386490327</v>
       </c>
       <c r="AD18" t="n">
-        <v>1891085.253895571</v>
+        <v>1994459.507134065</v>
       </c>
       <c r="AE18" t="n">
-        <v>2587466.273173213</v>
+        <v>2728907.487004306</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.03401299401179e-06</v>
+        <v>1.757753559183205e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>2340522.123593284</v>
+        <v>2468464.386490327</v>
       </c>
     </row>
     <row r="19">
@@ -19486,28 +19486,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1891.794733607178</v>
+        <v>1995.168986845672</v>
       </c>
       <c r="AB19" t="n">
-        <v>2588.43701461467</v>
+        <v>2729.878228445762</v>
       </c>
       <c r="AC19" t="n">
-        <v>2341.400218834012</v>
+        <v>2469.342481731054</v>
       </c>
       <c r="AD19" t="n">
-        <v>1891794.733607178</v>
+        <v>1995168.986845672</v>
       </c>
       <c r="AE19" t="n">
-        <v>2588437.01461467</v>
+        <v>2729878.228445762</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.034483556036916e-06</v>
+        <v>1.758553483438772e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.74392361111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>2341400.218834012</v>
+        <v>2469342.481731054</v>
       </c>
     </row>
     <row r="20">
@@ -19592,28 +19592,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1903.1858453831</v>
+        <v>2006.560098621594</v>
       </c>
       <c r="AB20" t="n">
-        <v>2604.02283628687</v>
+        <v>2745.464050117963</v>
       </c>
       <c r="AC20" t="n">
-        <v>2355.498551560656</v>
+        <v>2483.440814457699</v>
       </c>
       <c r="AD20" t="n">
-        <v>1903185.8453831</v>
+        <v>2006560.098621594</v>
       </c>
       <c r="AE20" t="n">
-        <v>2604022.83628687</v>
+        <v>2745464.050117963</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.034389443631891e-06</v>
+        <v>1.758393498587658e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.74609375</v>
       </c>
       <c r="AH20" t="n">
-        <v>2355498.551560656</v>
+        <v>2483440.814457699</v>
       </c>
     </row>
   </sheetData>
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3422.335310609433</v>
+        <v>3575.980311533326</v>
       </c>
       <c r="AB2" t="n">
-        <v>4682.590154754169</v>
+        <v>4892.8140233573</v>
       </c>
       <c r="AC2" t="n">
-        <v>4235.690322440813</v>
+        <v>4425.850720075507</v>
       </c>
       <c r="AD2" t="n">
-        <v>3422335.310609433</v>
+        <v>3575980.311533326</v>
       </c>
       <c r="AE2" t="n">
-        <v>4682590.154754169</v>
+        <v>4892814.0233573</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.241098882796299e-07</v>
+        <v>1.305741481890475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.51215277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>4235690.322440813</v>
+        <v>4425850.720075507</v>
       </c>
     </row>
     <row r="3">
@@ -19995,28 +19995,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2192.550024425865</v>
+        <v>2307.847780759714</v>
       </c>
       <c r="AB3" t="n">
-        <v>2999.943671899964</v>
+        <v>3157.699148693961</v>
       </c>
       <c r="AC3" t="n">
-        <v>2713.633258301106</v>
+        <v>2856.33277380108</v>
       </c>
       <c r="AD3" t="n">
-        <v>2192550.024425865</v>
+        <v>2307847.780759714</v>
       </c>
       <c r="AE3" t="n">
-        <v>2999943.671899964</v>
+        <v>3157699.148693962</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.38940015426708e-07</v>
+        <v>1.693131038525586e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.53298611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2713633.258301106</v>
+        <v>2856332.77380108</v>
       </c>
     </row>
     <row r="4">
@@ -20101,28 +20101,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1897.258828734272</v>
+        <v>2002.948438706966</v>
       </c>
       <c r="AB4" t="n">
-        <v>2595.913230626424</v>
+        <v>2740.522417687579</v>
       </c>
       <c r="AC4" t="n">
-        <v>2348.162915282539</v>
+        <v>2478.970804490846</v>
       </c>
       <c r="AD4" t="n">
-        <v>1897258.828734272</v>
+        <v>2002948.438706966</v>
       </c>
       <c r="AE4" t="n">
-        <v>2595913.230626424</v>
+        <v>2740522.41768758</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.01479235889807e-06</v>
+        <v>1.829910763498646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.77300347222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2348162.915282539</v>
+        <v>2478970.804490846</v>
       </c>
     </row>
     <row r="5">
@@ -20207,28 +20207,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1748.132578925832</v>
+        <v>1853.736848043955</v>
       </c>
       <c r="AB5" t="n">
-        <v>2391.872116652696</v>
+        <v>2536.364536591653</v>
       </c>
       <c r="AC5" t="n">
-        <v>2163.595198852962</v>
+        <v>2294.29746502933</v>
       </c>
       <c r="AD5" t="n">
-        <v>1748132.578925832</v>
+        <v>1853736.848043954</v>
       </c>
       <c r="AE5" t="n">
-        <v>2391872.116652696</v>
+        <v>2536364.536591653</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.054500297091132e-06</v>
+        <v>1.901513572544946e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.95269097222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2163595.198852962</v>
+        <v>2294297.46502933</v>
       </c>
     </row>
     <row r="6">
@@ -20313,28 +20313,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1651.353970683541</v>
+        <v>1756.787647601071</v>
       </c>
       <c r="AB6" t="n">
-        <v>2259.455355284729</v>
+        <v>2403.714363448839</v>
       </c>
       <c r="AC6" t="n">
-        <v>2043.816107341862</v>
+        <v>2174.307238235579</v>
       </c>
       <c r="AD6" t="n">
-        <v>1651353.970683541</v>
+        <v>1756787.647601071</v>
       </c>
       <c r="AE6" t="n">
-        <v>2259455.355284729</v>
+        <v>2403714.363448839</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.078935951363785e-06</v>
+        <v>1.945576839650361e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.47960069444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>2043816.107341862</v>
+        <v>2174307.238235579</v>
       </c>
     </row>
     <row r="7">
@@ -20419,28 +20419,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1574.729127227169</v>
+        <v>1670.725339492688</v>
       </c>
       <c r="AB7" t="n">
-        <v>2154.613864018208</v>
+        <v>2285.960116693881</v>
       </c>
       <c r="AC7" t="n">
-        <v>1948.98054085586</v>
+        <v>2067.791291521791</v>
       </c>
       <c r="AD7" t="n">
-        <v>1574729.127227169</v>
+        <v>1670725.339492688</v>
       </c>
       <c r="AE7" t="n">
-        <v>2154613.864018207</v>
+        <v>2285960.116693881</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.095633648450098e-06</v>
+        <v>1.975686738839062e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.16710069444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>1948980.54085586</v>
+        <v>2067791.291521791</v>
       </c>
     </row>
     <row r="8">
@@ -20525,28 +20525,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1504.33543512628</v>
+        <v>1609.854363389831</v>
       </c>
       <c r="AB8" t="n">
-        <v>2058.298108935255</v>
+        <v>2202.673761752015</v>
       </c>
       <c r="AC8" t="n">
-        <v>1861.857026258013</v>
+        <v>1992.453669402443</v>
       </c>
       <c r="AD8" t="n">
-        <v>1504335.43512628</v>
+        <v>1609854.363389831</v>
       </c>
       <c r="AE8" t="n">
-        <v>2058298.108935255</v>
+        <v>2202673.761752015</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.106324247194384e-06</v>
+        <v>1.994964418197681e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.97178819444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1861857.026258013</v>
+        <v>1992453.669402443</v>
       </c>
     </row>
     <row r="9">
@@ -20631,28 +20631,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1494.958617200321</v>
+        <v>1600.477545463872</v>
       </c>
       <c r="AB9" t="n">
-        <v>2045.468332972947</v>
+        <v>2189.843985789706</v>
       </c>
       <c r="AC9" t="n">
-        <v>1850.251706106844</v>
+        <v>1980.848349251274</v>
       </c>
       <c r="AD9" t="n">
-        <v>1494958.617200321</v>
+        <v>1600477.545463872</v>
       </c>
       <c r="AE9" t="n">
-        <v>2045468.332972947</v>
+        <v>2189843.985789706</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.108869627847785e-06</v>
+        <v>1.999554341854495e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.92404513888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>1850251.706106844</v>
+        <v>1980848.349251274</v>
       </c>
     </row>
     <row r="10">
@@ -20737,28 +20737,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1501.957581043517</v>
+        <v>1607.476509307068</v>
       </c>
       <c r="AB10" t="n">
-        <v>2055.0446240757</v>
+        <v>2199.420276892461</v>
       </c>
       <c r="AC10" t="n">
-        <v>1858.91404942716</v>
+        <v>1989.51069257159</v>
       </c>
       <c r="AD10" t="n">
-        <v>1501957.581043517</v>
+        <v>1607476.509307068</v>
       </c>
       <c r="AE10" t="n">
-        <v>2055044.6240757</v>
+        <v>2199420.27689246</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.109378703978465e-06</v>
+        <v>2.000472326585857e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.91753472222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>1858914.04942716</v>
+        <v>1989510.692571589</v>
       </c>
     </row>
   </sheetData>
@@ -21034,28 +21034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2462.299536930668</v>
+        <v>2591.653031722743</v>
       </c>
       <c r="AB2" t="n">
-        <v>3369.026855417652</v>
+        <v>3546.014013665613</v>
       </c>
       <c r="AC2" t="n">
-        <v>3047.491660795353</v>
+        <v>3207.587413063158</v>
       </c>
       <c r="AD2" t="n">
-        <v>2462299.536930668</v>
+        <v>2591653.031722743</v>
       </c>
       <c r="AE2" t="n">
-        <v>3369026.855417652</v>
+        <v>3546014.013665613</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.477193174260269e-07</v>
+        <v>1.581573278993382e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.15060763888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3047491.660795353</v>
+        <v>3207587.413063158</v>
       </c>
     </row>
     <row r="3">
@@ -21140,28 +21140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1724.067866453355</v>
+        <v>1825.751540601573</v>
       </c>
       <c r="AB3" t="n">
-        <v>2358.945715387667</v>
+        <v>2498.073804324358</v>
       </c>
       <c r="AC3" t="n">
-        <v>2133.811247112173</v>
+        <v>2259.661146508246</v>
       </c>
       <c r="AD3" t="n">
-        <v>1724067.866453355</v>
+        <v>1825751.540601573</v>
       </c>
       <c r="AE3" t="n">
-        <v>2358945.715387667</v>
+        <v>2498073.804324358</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.033320318989338e-06</v>
+        <v>1.927845421898226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.27430555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>2133811.247112173</v>
+        <v>2259661.146508246</v>
       </c>
     </row>
     <row r="4">
@@ -21246,28 +21246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1505.48329377696</v>
+        <v>1607.166878416627</v>
       </c>
       <c r="AB4" t="n">
-        <v>2059.868659781064</v>
+        <v>2198.996626248208</v>
       </c>
       <c r="AC4" t="n">
-        <v>1863.277685935381</v>
+        <v>1989.127474550227</v>
       </c>
       <c r="AD4" t="n">
-        <v>1505483.29377696</v>
+        <v>1607166.878416627</v>
       </c>
       <c r="AE4" t="n">
-        <v>2059868.659781064</v>
+        <v>2198996.626248208</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.098121582963729e-06</v>
+        <v>2.048743867221003e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.95920138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1863277.685935381</v>
+        <v>1989127.474550227</v>
       </c>
     </row>
     <row r="5">
@@ -21352,28 +21352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1384.292273029394</v>
+        <v>1476.724226678136</v>
       </c>
       <c r="AB5" t="n">
-        <v>1894.049758623751</v>
+        <v>2020.519235415958</v>
       </c>
       <c r="AC5" t="n">
-        <v>1713.284307976232</v>
+        <v>1827.683715404416</v>
       </c>
       <c r="AD5" t="n">
-        <v>1384292.273029394</v>
+        <v>1476724.226678136</v>
       </c>
       <c r="AE5" t="n">
-        <v>1894049.758623751</v>
+        <v>2020519.235415958</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.131635820960304e-06</v>
+        <v>2.11127072273982e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.33854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1713284.307976232</v>
+        <v>1827683.715404416</v>
       </c>
     </row>
     <row r="6">
@@ -21458,28 +21458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1339.757896307224</v>
+        <v>1432.189849955965</v>
       </c>
       <c r="AB6" t="n">
-        <v>1833.115859674441</v>
+        <v>1959.585336466647</v>
       </c>
       <c r="AC6" t="n">
-        <v>1658.165854821379</v>
+        <v>1772.565262249562</v>
       </c>
       <c r="AD6" t="n">
-        <v>1339757.896307224</v>
+        <v>1432189.849955966</v>
       </c>
       <c r="AE6" t="n">
-        <v>1833115.859674441</v>
+        <v>1959585.336466647</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.142771881054102e-06</v>
+        <v>2.132047051314111e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.14105902777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1658165.854821379</v>
+        <v>1772565.262249562</v>
       </c>
     </row>
     <row r="7">
@@ -21564,28 +21564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1351.649012119082</v>
+        <v>1444.080965767824</v>
       </c>
       <c r="AB7" t="n">
-        <v>1849.385808927229</v>
+        <v>1975.855285719436</v>
       </c>
       <c r="AC7" t="n">
-        <v>1672.883022952499</v>
+        <v>1787.282430380682</v>
       </c>
       <c r="AD7" t="n">
-        <v>1351649.012119082</v>
+        <v>1444080.965767824</v>
       </c>
       <c r="AE7" t="n">
-        <v>1849385.808927229</v>
+        <v>1975855.285719436</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.142241592478207e-06</v>
+        <v>2.131057702334383e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.14973958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1672883.022952499</v>
+        <v>1787282.430380682</v>
       </c>
     </row>
   </sheetData>
@@ -40138,28 +40138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1891.914408489681</v>
+        <v>1999.516369756144</v>
       </c>
       <c r="AB2" t="n">
-        <v>2588.600759068594</v>
+        <v>2735.826509536868</v>
       </c>
       <c r="AC2" t="n">
-        <v>2341.54833574707</v>
+        <v>2474.723067223291</v>
       </c>
       <c r="AD2" t="n">
-        <v>1891914.408489681</v>
+        <v>1999516.369756144</v>
       </c>
       <c r="AE2" t="n">
-        <v>2588600.759068593</v>
+        <v>2735826.509536868</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.494461193265072e-07</v>
+        <v>1.825820096352348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2341548.33574707</v>
+        <v>2474723.067223291</v>
       </c>
     </row>
     <row r="3">
@@ -40244,28 +40244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1388.886524547636</v>
+        <v>1487.350981458463</v>
       </c>
       <c r="AB3" t="n">
-        <v>1900.335816235083</v>
+        <v>2035.059230125735</v>
       </c>
       <c r="AC3" t="n">
-        <v>1718.970433071675</v>
+        <v>1840.836033426103</v>
       </c>
       <c r="AD3" t="n">
-        <v>1388886.524547636</v>
+        <v>1487350.981458463</v>
       </c>
       <c r="AE3" t="n">
-        <v>1900335.816235083</v>
+        <v>2035059.230125735</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.111600194247304e-06</v>
+        <v>2.137648395683152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.41927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1718970.433071675</v>
+        <v>1840836.033426103</v>
       </c>
     </row>
     <row r="4">
@@ -40350,28 +40350,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1228.528659250869</v>
+        <v>1326.907775307125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1680.927110446322</v>
+        <v>1815.533757214777</v>
       </c>
       <c r="AC4" t="n">
-        <v>1520.501786221341</v>
+        <v>1642.26176354383</v>
       </c>
       <c r="AD4" t="n">
-        <v>1228528.659250869</v>
+        <v>1326907.775307125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1680927.110446322</v>
+        <v>1815533.757214777</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.162725903931399e-06</v>
+        <v>2.235965031331429e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.47743055555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1520501.786221341</v>
+        <v>1642261.76354383</v>
       </c>
     </row>
     <row r="5">
@@ -40456,28 +40456,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1227.223202158485</v>
+        <v>1316.806177277391</v>
       </c>
       <c r="AB5" t="n">
-        <v>1679.140926459819</v>
+        <v>1801.712305139442</v>
       </c>
       <c r="AC5" t="n">
-        <v>1518.886073127585</v>
+        <v>1629.759411456036</v>
       </c>
       <c r="AD5" t="n">
-        <v>1227223.202158485</v>
+        <v>1316806.177277391</v>
       </c>
       <c r="AE5" t="n">
-        <v>1679140.926459819</v>
+        <v>1801712.305139442</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.166017258632091e-06</v>
+        <v>2.242294428476168e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.41883680555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1518886.073127585</v>
+        <v>1629759.411456036</v>
       </c>
     </row>
   </sheetData>
@@ -40753,28 +40753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1024.145052204594</v>
+        <v>1124.799171496683</v>
       </c>
       <c r="AB2" t="n">
-        <v>1401.280442517238</v>
+        <v>1538.999849079018</v>
       </c>
       <c r="AC2" t="n">
-        <v>1267.544203792845</v>
+        <v>1392.119863482771</v>
       </c>
       <c r="AD2" t="n">
-        <v>1024145.052204594</v>
+        <v>1124799.171496683</v>
       </c>
       <c r="AE2" t="n">
-        <v>1401280.442517238</v>
+        <v>1538999.849079018</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.165531608467101e-06</v>
+        <v>2.404024704651069e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.92491319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1267544.203792845</v>
+        <v>1392119.863482771</v>
       </c>
     </row>
     <row r="3">
@@ -40859,28 +40859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1004.010804763817</v>
+        <v>1096.433539014946</v>
       </c>
       <c r="AB3" t="n">
-        <v>1373.731876908459</v>
+        <v>1500.18873931412</v>
       </c>
       <c r="AC3" t="n">
-        <v>1242.624834621114</v>
+        <v>1357.0128315621</v>
       </c>
       <c r="AD3" t="n">
-        <v>1004010.804763817</v>
+        <v>1096433.539014946</v>
       </c>
       <c r="AE3" t="n">
-        <v>1373731.876908459</v>
+        <v>1500188.73931412</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.182017204060695e-06</v>
+        <v>2.438027882934676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.62109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1242624.834621114</v>
+        <v>1357012.8315621</v>
       </c>
     </row>
   </sheetData>
@@ -41156,28 +41156,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4587.631101749365</v>
+        <v>4756.01969189653</v>
       </c>
       <c r="AB2" t="n">
-        <v>6276.999265413939</v>
+        <v>6507.395963233604</v>
       </c>
       <c r="AC2" t="n">
-        <v>5677.931265346396</v>
+        <v>5886.33922568994</v>
       </c>
       <c r="AD2" t="n">
-        <v>4587631.101749365</v>
+        <v>4756019.69189653</v>
       </c>
       <c r="AE2" t="n">
-        <v>6276999.265413939</v>
+        <v>6507395.963233604</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.228646867952638e-07</v>
+        <v>1.094348684072805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.30989583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5677931.265346396</v>
+        <v>5886339.225689939</v>
       </c>
     </row>
     <row r="3">
@@ -41262,28 +41262,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2674.546217288174</v>
+        <v>2803.293814046039</v>
       </c>
       <c r="AB3" t="n">
-        <v>3659.432127145492</v>
+        <v>3835.590268972712</v>
       </c>
       <c r="AC3" t="n">
-        <v>3310.181060975836</v>
+        <v>3469.526916986564</v>
       </c>
       <c r="AD3" t="n">
-        <v>2674546.217288174</v>
+        <v>2803293.814046039</v>
       </c>
       <c r="AE3" t="n">
-        <v>3659432.127145492</v>
+        <v>3835590.268972712</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.591101229410088e-07</v>
+        <v>1.509422596023897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.87630208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3310181.060975836</v>
+        <v>3469526.916986564</v>
       </c>
     </row>
     <row r="4">
@@ -41368,28 +41368,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2271.522554960171</v>
+        <v>2390.359925747848</v>
       </c>
       <c r="AB4" t="n">
-        <v>3107.997372199165</v>
+        <v>3270.595905645659</v>
       </c>
       <c r="AC4" t="n">
-        <v>2811.374465098067</v>
+        <v>2958.454822720897</v>
       </c>
       <c r="AD4" t="n">
-        <v>2271522.554960171</v>
+        <v>2390359.925747848</v>
       </c>
       <c r="AE4" t="n">
-        <v>3107997.372199165</v>
+        <v>3270595.905645659</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.457695576255673e-07</v>
+        <v>1.661679804242722e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.59765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2811374.465098067</v>
+        <v>2958454.822720897</v>
       </c>
     </row>
     <row r="5">
@@ -41474,28 +41474,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2084.125946206041</v>
+        <v>2193.138431878105</v>
       </c>
       <c r="AB5" t="n">
-        <v>2851.593064746689</v>
+        <v>3000.748756934824</v>
       </c>
       <c r="AC5" t="n">
-        <v>2579.441024883267</v>
+        <v>2714.361507150183</v>
       </c>
       <c r="AD5" t="n">
-        <v>2084125.946206041</v>
+        <v>2193138.431878105</v>
       </c>
       <c r="AE5" t="n">
-        <v>2851593.064746689</v>
+        <v>3000748.756934824</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.911672842046371e-07</v>
+        <v>1.741441819002812e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH5" t="n">
-        <v>2579441.024883267</v>
+        <v>2714361.507150183</v>
       </c>
     </row>
     <row r="6">
@@ -41580,28 +41580,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1962.718230805322</v>
+        <v>2071.645375622811</v>
       </c>
       <c r="AB6" t="n">
-        <v>2685.477672405037</v>
+        <v>2834.516597470799</v>
       </c>
       <c r="AC6" t="n">
-        <v>2429.179452442286</v>
+        <v>2563.994311677216</v>
       </c>
       <c r="AD6" t="n">
-        <v>1962718.230805322</v>
+        <v>2071645.375622811</v>
       </c>
       <c r="AE6" t="n">
-        <v>2685477.672405037</v>
+        <v>2834516.597470799</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.019134647216472e-06</v>
+        <v>1.790579372564341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.97005208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2429179.452442286</v>
+        <v>2563994.311677216</v>
       </c>
     </row>
     <row r="7">
@@ -41686,28 +41686,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1881.483803973848</v>
+        <v>1990.410948791338</v>
       </c>
       <c r="AB7" t="n">
-        <v>2574.329145804237</v>
+        <v>2723.368070869998</v>
       </c>
       <c r="AC7" t="n">
-        <v>2328.638785222328</v>
+        <v>2463.453644457259</v>
       </c>
       <c r="AD7" t="n">
-        <v>1881483.803973848</v>
+        <v>1990410.948791338</v>
       </c>
       <c r="AE7" t="n">
-        <v>2574329.145804237</v>
+        <v>2723368.070869998</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.037746730347587e-06</v>
+        <v>1.82328006842043e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.59244791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2328638.785222328</v>
+        <v>2463453.644457259</v>
       </c>
     </row>
     <row r="8">
@@ -41792,28 +41792,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1817.690067189634</v>
+        <v>1916.707075545487</v>
       </c>
       <c r="AB8" t="n">
-        <v>2487.043740755037</v>
+        <v>2622.523179909623</v>
       </c>
       <c r="AC8" t="n">
-        <v>2249.683776725189</v>
+        <v>2372.233248353448</v>
       </c>
       <c r="AD8" t="n">
-        <v>1817690.067189634</v>
+        <v>1916707.075545487</v>
       </c>
       <c r="AE8" t="n">
-        <v>2487043.740755036</v>
+        <v>2622523.179909623</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.051434981962535e-06</v>
+        <v>1.847329786536813e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.32552083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2249683.776725189</v>
+        <v>2372233.248353448</v>
       </c>
     </row>
     <row r="9">
@@ -41898,28 +41898,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1762.762512813252</v>
+        <v>1861.779521169105</v>
       </c>
       <c r="AB9" t="n">
-        <v>2411.889437624595</v>
+        <v>2547.368876779181</v>
       </c>
       <c r="AC9" t="n">
-        <v>2181.70209480579</v>
+        <v>2304.251566434049</v>
       </c>
       <c r="AD9" t="n">
-        <v>1762762.512813252</v>
+        <v>1861779.521169106</v>
       </c>
       <c r="AE9" t="n">
-        <v>2411889.437624595</v>
+        <v>2547368.876779181</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.061873504776811e-06</v>
+        <v>1.86566985934499e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.12586805555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>2181702.09480579</v>
+        <v>2304251.56643405</v>
       </c>
     </row>
     <row r="10">
@@ -42004,28 +42004,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1688.497375538322</v>
+        <v>1797.33917950124</v>
       </c>
       <c r="AB10" t="n">
-        <v>2310.276600458412</v>
+        <v>2459.198758401976</v>
       </c>
       <c r="AC10" t="n">
-        <v>2089.787044204234</v>
+        <v>2224.496280407226</v>
       </c>
       <c r="AD10" t="n">
-        <v>1688497.375538322</v>
+        <v>1797339.17950124</v>
       </c>
       <c r="AE10" t="n">
-        <v>2310276.600458412</v>
+        <v>2459198.758401976</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.070539448245267e-06</v>
+        <v>1.880895580166872e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.9609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>2089787.044204234</v>
+        <v>2224496.280407226</v>
       </c>
     </row>
     <row r="11">
@@ -42110,28 +42110,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1651.985021244054</v>
+        <v>1760.826825206972</v>
       </c>
       <c r="AB11" t="n">
-        <v>2260.318786501609</v>
+        <v>2409.240944445173</v>
       </c>
       <c r="AC11" t="n">
-        <v>2044.597133895236</v>
+        <v>2179.306370098228</v>
       </c>
       <c r="AD11" t="n">
-        <v>1651985.021244054</v>
+        <v>1760826.825206972</v>
       </c>
       <c r="AE11" t="n">
-        <v>2260318.786501609</v>
+        <v>2409240.944445173</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.076546522694992e-06</v>
+        <v>1.891449773009313e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.85243055555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>2044597.133895236</v>
+        <v>2179306.370098228</v>
       </c>
     </row>
     <row r="12">
@@ -42216,28 +42216,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1644.560368529907</v>
+        <v>1753.402172492825</v>
       </c>
       <c r="AB12" t="n">
-        <v>2250.160049105553</v>
+        <v>2399.082207049118</v>
       </c>
       <c r="AC12" t="n">
-        <v>2035.407932138383</v>
+        <v>2170.117168341374</v>
       </c>
       <c r="AD12" t="n">
-        <v>1644560.368529907</v>
+        <v>1753402.172492825</v>
       </c>
       <c r="AE12" t="n">
-        <v>2250160.049105553</v>
+        <v>2399082.207049117</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.077728242258872e-06</v>
+        <v>1.893526007666843e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.83072916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>2035407.932138383</v>
+        <v>2170117.168341374</v>
       </c>
     </row>
     <row r="13">
@@ -42322,28 +42322,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1648.595107391964</v>
+        <v>1757.436911354883</v>
       </c>
       <c r="AB13" t="n">
-        <v>2255.680556816735</v>
+        <v>2404.602714760299</v>
       </c>
       <c r="AC13" t="n">
-        <v>2040.401570341691</v>
+        <v>2175.110806544682</v>
       </c>
       <c r="AD13" t="n">
-        <v>1648595.107391964</v>
+        <v>1757436.911354883</v>
       </c>
       <c r="AE13" t="n">
-        <v>2255680.556816735</v>
+        <v>2404602.714760299</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.078417578671136e-06</v>
+        <v>1.894737144550401e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.81553819444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>2040401.570341691</v>
+        <v>2175110.806544682</v>
       </c>
     </row>
   </sheetData>
@@ -42619,28 +42619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6664.167516011192</v>
+        <v>6879.327625176755</v>
       </c>
       <c r="AB2" t="n">
-        <v>9118.207997728199</v>
+        <v>9412.599551282627</v>
       </c>
       <c r="AC2" t="n">
-        <v>8247.979023909975</v>
+        <v>8514.2742607743</v>
       </c>
       <c r="AD2" t="n">
-        <v>6664167.516011192</v>
+        <v>6879327.625176755</v>
       </c>
       <c r="AE2" t="n">
-        <v>9118207.997728199</v>
+        <v>9412599.551282628</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.086383506390769e-07</v>
+        <v>8.69714895716572e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.48611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>8247979.023909975</v>
+        <v>8514274.2607743</v>
       </c>
     </row>
     <row r="3">
@@ -42725,28 +42725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3378.345113953596</v>
+        <v>3521.870467912843</v>
       </c>
       <c r="AB3" t="n">
-        <v>4622.400826979141</v>
+        <v>4818.778548157928</v>
       </c>
       <c r="AC3" t="n">
-        <v>4181.245379632384</v>
+        <v>4358.881086719723</v>
       </c>
       <c r="AD3" t="n">
-        <v>3378345.113953596</v>
+        <v>3521870.467912843</v>
       </c>
       <c r="AE3" t="n">
-        <v>4622400.826979141</v>
+        <v>4818778.548157928</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.675124962628459e-07</v>
+        <v>1.31236083517829e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.83376736111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>4181245.379632385</v>
+        <v>4358881.086719722</v>
       </c>
     </row>
     <row r="4">
@@ -42831,28 +42831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2777.767261640427</v>
+        <v>2910.949367972686</v>
       </c>
       <c r="AB4" t="n">
-        <v>3800.663713819339</v>
+        <v>3982.889347283</v>
       </c>
       <c r="AC4" t="n">
-        <v>3437.933703237303</v>
+        <v>3602.767977998468</v>
       </c>
       <c r="AD4" t="n">
-        <v>2777767.261640427</v>
+        <v>2910949.367972685</v>
       </c>
       <c r="AE4" t="n">
-        <v>3800663.713819339</v>
+        <v>3982889.347283</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.659188338771599e-07</v>
+        <v>1.480624705860768e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.78255208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>3437933.703237303</v>
+        <v>3602767.977998468</v>
       </c>
     </row>
     <row r="5">
@@ -42937,28 +42937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2518.40227762868</v>
+        <v>2631.154000779231</v>
       </c>
       <c r="AB5" t="n">
-        <v>3445.789100318915</v>
+        <v>3600.060982188467</v>
       </c>
       <c r="AC5" t="n">
-        <v>3116.927824779724</v>
+        <v>3256.476214765587</v>
       </c>
       <c r="AD5" t="n">
-        <v>2518402.27762868</v>
+        <v>2631154.000779232</v>
       </c>
       <c r="AE5" t="n">
-        <v>3445789.100318915</v>
+        <v>3600060.982188467</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.18680573234497e-07</v>
+        <v>1.570841400267189e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.41536458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3116927.824779724</v>
+        <v>3256476.214765586</v>
       </c>
     </row>
     <row r="6">
@@ -43043,28 +43043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2370.95688243947</v>
+        <v>2483.793856936041</v>
       </c>
       <c r="AB6" t="n">
-        <v>3244.047805789277</v>
+        <v>3398.436332311479</v>
       </c>
       <c r="AC6" t="n">
-        <v>2934.440436254317</v>
+        <v>3074.094338490893</v>
       </c>
       <c r="AD6" t="n">
-        <v>2370956.882439469</v>
+        <v>2483793.856936041</v>
       </c>
       <c r="AE6" t="n">
-        <v>3244047.805789277</v>
+        <v>3398436.332311479</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.500908892907536e-07</v>
+        <v>1.624549540282523e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.67534722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>2934440.436254317</v>
+        <v>3074094.338490893</v>
       </c>
     </row>
     <row r="7">
@@ -43149,28 +43149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2272.727730317262</v>
+        <v>2385.394112613242</v>
       </c>
       <c r="AB7" t="n">
-        <v>3109.646346291322</v>
+        <v>3263.801461038677</v>
       </c>
       <c r="AC7" t="n">
-        <v>2812.866063417219</v>
+        <v>2952.308830371143</v>
       </c>
       <c r="AD7" t="n">
-        <v>2272727.730317262</v>
+        <v>2385394.112613242</v>
       </c>
       <c r="AE7" t="n">
-        <v>3109646.346291322</v>
+        <v>3263801.461038677</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.723912647385486e-07</v>
+        <v>1.662680697090991e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.17838541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2812866.063417219</v>
+        <v>2952308.830371143</v>
       </c>
     </row>
     <row r="8">
@@ -43255,28 +43255,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2188.130157793747</v>
+        <v>2300.88179143575</v>
       </c>
       <c r="AB8" t="n">
-        <v>2993.896215382975</v>
+        <v>3148.167974783154</v>
       </c>
       <c r="AC8" t="n">
-        <v>2708.162962546553</v>
+        <v>2847.711241751234</v>
       </c>
       <c r="AD8" t="n">
-        <v>2188130.157793747</v>
+        <v>2300881.79143575</v>
       </c>
       <c r="AE8" t="n">
-        <v>2993896.215382975</v>
+        <v>3148167.974783154</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.889030320913844e-07</v>
+        <v>1.690913979153432e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.82465277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>2708162.962546553</v>
+        <v>2847711.241751234</v>
       </c>
     </row>
     <row r="9">
@@ -43361,28 +43361,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2128.623729543259</v>
+        <v>2241.375363185262</v>
       </c>
       <c r="AB9" t="n">
-        <v>2912.476895012323</v>
+        <v>3066.748654412497</v>
       </c>
       <c r="AC9" t="n">
-        <v>2634.514187839342</v>
+        <v>2774.062467044022</v>
       </c>
       <c r="AD9" t="n">
-        <v>2128623.729543259</v>
+        <v>2241375.363185262</v>
       </c>
       <c r="AE9" t="n">
-        <v>2912476.895012322</v>
+        <v>3066748.654412497</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.001239409998676e-06</v>
+        <v>1.712007810579394e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.56857638888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>2634514.187839342</v>
+        <v>2774062.467044022</v>
       </c>
     </row>
     <row r="10">
@@ -43467,28 +43467,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2080.998522291519</v>
+        <v>2183.492338669654</v>
       </c>
       <c r="AB10" t="n">
-        <v>2847.313985374633</v>
+        <v>2987.55054665125</v>
       </c>
       <c r="AC10" t="n">
-        <v>2575.570334840756</v>
+        <v>2702.422915532381</v>
       </c>
       <c r="AD10" t="n">
-        <v>2080998.522291519</v>
+        <v>2183492.338669654</v>
       </c>
       <c r="AE10" t="n">
-        <v>2847313.985374633</v>
+        <v>2987550.54665125</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.010254455392465e-06</v>
+        <v>1.72742253354452e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.38411458333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2575570.334840756</v>
+        <v>2702422.915532381</v>
       </c>
     </row>
     <row r="11">
@@ -43573,28 +43573,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2036.691283204976</v>
+        <v>2139.185099583111</v>
       </c>
       <c r="AB11" t="n">
-        <v>2786.690866158992</v>
+        <v>2926.92742743561</v>
       </c>
       <c r="AC11" t="n">
-        <v>2520.733001037973</v>
+        <v>2647.5855817296</v>
       </c>
       <c r="AD11" t="n">
-        <v>2036691.283204976</v>
+        <v>2139185.099583111</v>
       </c>
       <c r="AE11" t="n">
-        <v>2786690.866158993</v>
+        <v>2926927.42743561</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.018035862995526e-06</v>
+        <v>1.740727873367049e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.23003472222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>2520733.001037973</v>
+        <v>2647585.5817296</v>
       </c>
     </row>
     <row r="12">
@@ -43679,28 +43679,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1989.867036741942</v>
+        <v>2092.360853120077</v>
       </c>
       <c r="AB12" t="n">
-        <v>2722.623866408308</v>
+        <v>2862.860427684925</v>
       </c>
       <c r="AC12" t="n">
-        <v>2462.780465824895</v>
+        <v>2589.633046516521</v>
       </c>
       <c r="AD12" t="n">
-        <v>1989867.036741941</v>
+        <v>2092360.853120076</v>
       </c>
       <c r="AE12" t="n">
-        <v>2722623.866408308</v>
+        <v>2862860.427684925</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.024298947163843e-06</v>
+        <v>1.751437049321768e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.10633680555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>2462780.465824895</v>
+        <v>2589633.046516521</v>
       </c>
     </row>
     <row r="13">
@@ -43785,28 +43785,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1945.538421904262</v>
+        <v>2058.20471469169</v>
       </c>
       <c r="AB13" t="n">
-        <v>2661.971499946931</v>
+        <v>2816.126492224727</v>
       </c>
       <c r="AC13" t="n">
-        <v>2407.91667609246</v>
+        <v>2547.359332265155</v>
       </c>
       <c r="AD13" t="n">
-        <v>1945538.421904262</v>
+        <v>2058204.71469169</v>
       </c>
       <c r="AE13" t="n">
-        <v>2661971.499946931</v>
+        <v>2816126.492224727</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.030467136117488e-06</v>
+        <v>1.761983965034749e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.98480902777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>2407916.67609246</v>
+        <v>2547359.332265154</v>
       </c>
     </row>
     <row r="14">
@@ -43891,28 +43891,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1908.543564316157</v>
+        <v>2021.209857103585</v>
       </c>
       <c r="AB14" t="n">
-        <v>2611.353503696957</v>
+        <v>2765.508495974754</v>
       </c>
       <c r="AC14" t="n">
-        <v>2362.12959036178</v>
+        <v>2501.572246534474</v>
       </c>
       <c r="AD14" t="n">
-        <v>1908543.564316157</v>
+        <v>2021209.857103585</v>
       </c>
       <c r="AE14" t="n">
-        <v>2611353.503696957</v>
+        <v>2765508.495974754</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.035022106421719e-06</v>
+        <v>1.769772456638181e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.89800347222222</v>
       </c>
       <c r="AH14" t="n">
-        <v>2362129.59036178</v>
+        <v>2501572.246534474</v>
       </c>
     </row>
     <row r="15">
@@ -43997,28 +43997,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1871.600211224278</v>
+        <v>1984.266504011706</v>
       </c>
       <c r="AB15" t="n">
-        <v>2560.805978170937</v>
+        <v>2714.960970448733</v>
       </c>
       <c r="AC15" t="n">
-        <v>2316.406249728065</v>
+        <v>2455.84890590076</v>
       </c>
       <c r="AD15" t="n">
-        <v>1871600.211224278</v>
+        <v>1984266.504011706</v>
       </c>
       <c r="AE15" t="n">
-        <v>2560805.978170936</v>
+        <v>2714960.970448733</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.038628124579234e-06</v>
+        <v>1.775938345824232e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.82638888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>2316406.249728065</v>
+        <v>2455848.90590076</v>
       </c>
     </row>
     <row r="16">
@@ -44103,28 +44103,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1845.903351690864</v>
+        <v>1948.482419415019</v>
       </c>
       <c r="AB16" t="n">
-        <v>2525.646401291886</v>
+        <v>2665.999607221152</v>
       </c>
       <c r="AC16" t="n">
-        <v>2284.602253519576</v>
+        <v>2411.560346461914</v>
       </c>
       <c r="AD16" t="n">
-        <v>1845903.351690864</v>
+        <v>1948482.419415019</v>
       </c>
       <c r="AE16" t="n">
-        <v>2525646.401291886</v>
+        <v>2665999.607221152</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.041190295375364e-06</v>
+        <v>1.780319372351162e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.77864583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>2284602.253519576</v>
+        <v>2411560.346461914</v>
       </c>
     </row>
     <row r="17">
@@ -44209,28 +44209,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1839.946358547613</v>
+        <v>1942.525426271769</v>
       </c>
       <c r="AB17" t="n">
-        <v>2517.495780469301</v>
+        <v>2657.848986398566</v>
       </c>
       <c r="AC17" t="n">
-        <v>2277.229516508829</v>
+        <v>2404.187609451168</v>
       </c>
       <c r="AD17" t="n">
-        <v>1839946.358547613</v>
+        <v>1942525.426271769</v>
       </c>
       <c r="AE17" t="n">
-        <v>2517495.780469301</v>
+        <v>2657848.986398567</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.042423933166093e-06</v>
+        <v>1.782428755493758e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.75477430555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>2277229.516508829</v>
+        <v>2404187.609451168</v>
       </c>
     </row>
     <row r="18">
@@ -44315,28 +44315,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1842.781836935658</v>
+        <v>1945.360904659814</v>
       </c>
       <c r="AB18" t="n">
-        <v>2521.375407092303</v>
+        <v>2661.728613021568</v>
       </c>
       <c r="AC18" t="n">
-        <v>2280.738877012022</v>
+        <v>2407.69696995436</v>
       </c>
       <c r="AD18" t="n">
-        <v>1842781.836935658</v>
+        <v>1945360.904659814</v>
       </c>
       <c r="AE18" t="n">
-        <v>2521375.407092303</v>
+        <v>2661728.613021568</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.042803514024779e-06</v>
+        <v>1.783077796460711e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.74826388888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>2280738.877012022</v>
+        <v>2407696.96995436</v>
       </c>
     </row>
     <row r="19">
@@ -44421,28 +44421,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1850.80348007569</v>
+        <v>1953.382547799845</v>
       </c>
       <c r="AB19" t="n">
-        <v>2532.350973126413</v>
+        <v>2672.704179055678</v>
       </c>
       <c r="AC19" t="n">
-        <v>2290.66695042814</v>
+        <v>2417.625043370478</v>
       </c>
       <c r="AD19" t="n">
-        <v>1850803.480075689</v>
+        <v>1953382.547799845</v>
       </c>
       <c r="AE19" t="n">
-        <v>2532350.973126412</v>
+        <v>2672704.179055678</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.042898409239451e-06</v>
+        <v>1.783240056702449e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.74609375</v>
       </c>
       <c r="AH19" t="n">
-        <v>2290666.95042814</v>
+        <v>2417625.043370478</v>
       </c>
     </row>
   </sheetData>
@@ -44718,28 +44718,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>891.9354603360948</v>
+        <v>989.5052610824902</v>
       </c>
       <c r="AB2" t="n">
-        <v>1220.385446247213</v>
+        <v>1353.884752104246</v>
       </c>
       <c r="AC2" t="n">
-        <v>1103.91357207911</v>
+        <v>1224.6718915526</v>
       </c>
       <c r="AD2" t="n">
-        <v>891935.4603360948</v>
+        <v>989505.2610824902</v>
       </c>
       <c r="AE2" t="n">
-        <v>1220385.446247213</v>
+        <v>1353884.752104246</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15179604267065e-06</v>
+        <v>2.468829425713958e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.97309027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1103913.57207911</v>
+        <v>1224671.8915526</v>
       </c>
     </row>
   </sheetData>
@@ -45015,28 +45015,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2763.219193620724</v>
+        <v>2894.429357925815</v>
       </c>
       <c r="AB2" t="n">
-        <v>3780.758405339317</v>
+        <v>3960.285940725464</v>
       </c>
       <c r="AC2" t="n">
-        <v>3419.928129461338</v>
+        <v>3582.321808838703</v>
       </c>
       <c r="AD2" t="n">
-        <v>2763219.193620724</v>
+        <v>2894429.357925815</v>
       </c>
       <c r="AE2" t="n">
-        <v>3780758.405339316</v>
+        <v>3960285.940725464</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.036960233223646e-07</v>
+        <v>1.480755701702849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.22048611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>3419928.129461338</v>
+        <v>3582321.808838703</v>
       </c>
     </row>
     <row r="3">
@@ -45121,28 +45121,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1878.817580677653</v>
+        <v>1991.271167524034</v>
       </c>
       <c r="AB3" t="n">
-        <v>2570.681101464913</v>
+        <v>2724.545060090246</v>
       </c>
       <c r="AC3" t="n">
-        <v>2325.338905114687</v>
+        <v>2464.518303478241</v>
       </c>
       <c r="AD3" t="n">
-        <v>1878817.580677653</v>
+        <v>1991271.167524034</v>
       </c>
       <c r="AE3" t="n">
-        <v>2570681.101464913</v>
+        <v>2724545.060090246</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.992376695689373e-07</v>
+        <v>1.841027992715337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.69748263888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>2325338.905114687</v>
+        <v>2464518.303478241</v>
       </c>
     </row>
     <row r="4">
@@ -45227,28 +45227,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1647.032978490421</v>
+        <v>1750.023070015702</v>
       </c>
       <c r="AB4" t="n">
-        <v>2253.54318313738</v>
+        <v>2394.458769964437</v>
       </c>
       <c r="AC4" t="n">
-        <v>2038.468184606471</v>
+        <v>2165.934985603021</v>
       </c>
       <c r="AD4" t="n">
-        <v>1647032.978490421</v>
+        <v>1750023.070015702</v>
       </c>
       <c r="AE4" t="n">
-        <v>2253543.183137381</v>
+        <v>2394458.769964437</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.06821548171364e-06</v>
+        <v>1.968114958011031e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.23263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2038468.184606471</v>
+        <v>2165934.985603021</v>
       </c>
     </row>
     <row r="5">
@@ -45333,28 +45333,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1511.920417251844</v>
+        <v>1614.995760123146</v>
       </c>
       <c r="AB5" t="n">
-        <v>2068.676216105247</v>
+        <v>2209.708447584952</v>
       </c>
       <c r="AC5" t="n">
-        <v>1871.244661445466</v>
+        <v>1998.816974692728</v>
       </c>
       <c r="AD5" t="n">
-        <v>1511920.417251844</v>
+        <v>1614995.760123146</v>
       </c>
       <c r="AE5" t="n">
-        <v>2068676.216105247</v>
+        <v>2209708.447584952</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.1044810890079e-06</v>
+        <v>2.034931892795281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.53602430555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1871244.661445466</v>
+        <v>1998816.974692728</v>
       </c>
     </row>
     <row r="6">
@@ -45439,28 +45439,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1420.413084698123</v>
+        <v>1514.110273102896</v>
       </c>
       <c r="AB6" t="n">
-        <v>1943.47184668665</v>
+        <v>2071.672473490277</v>
       </c>
       <c r="AC6" t="n">
-        <v>1757.989621318744</v>
+        <v>1873.954960230943</v>
       </c>
       <c r="AD6" t="n">
-        <v>1420413.084698123</v>
+        <v>1514110.273102896</v>
       </c>
       <c r="AE6" t="n">
-        <v>1943471.846686651</v>
+        <v>2071672.473490277</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.125592479997642e-06</v>
+        <v>2.073828206416084e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.14973958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1757989.621318744</v>
+        <v>1873954.960230943</v>
       </c>
     </row>
     <row r="7">
@@ -45545,28 +45545,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1398.961889014253</v>
+        <v>1492.659077419027</v>
       </c>
       <c r="AB7" t="n">
-        <v>1914.121374392018</v>
+        <v>2042.322001195644</v>
       </c>
       <c r="AC7" t="n">
-        <v>1731.440316906265</v>
+        <v>1847.405655818463</v>
       </c>
       <c r="AD7" t="n">
-        <v>1398961.889014253</v>
+        <v>1492659.077419027</v>
       </c>
       <c r="AE7" t="n">
-        <v>1914121.374392018</v>
+        <v>2042322.001195644</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.130295512643872e-06</v>
+        <v>2.082493226777154e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.06727430555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1731440.316906265</v>
+        <v>1847405.655818463</v>
       </c>
     </row>
     <row r="8">
@@ -45651,28 +45651,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1405.83049355296</v>
+        <v>1499.527681957733</v>
       </c>
       <c r="AB8" t="n">
-        <v>1923.519302143322</v>
+        <v>2051.719928946948</v>
       </c>
       <c r="AC8" t="n">
-        <v>1739.941319623058</v>
+        <v>1855.906658535257</v>
       </c>
       <c r="AD8" t="n">
-        <v>1405830.49355296</v>
+        <v>1499527.681957733</v>
       </c>
       <c r="AE8" t="n">
-        <v>1923519.302143322</v>
+        <v>2051719.928946948</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.131131607336535e-06</v>
+        <v>2.084033674841345e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1739941.319623058</v>
+        <v>1855906.658535257</v>
       </c>
     </row>
   </sheetData>
@@ -45948,28 +45948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3779.757063757519</v>
+        <v>3944.720374143717</v>
       </c>
       <c r="AB2" t="n">
-        <v>5171.630365746284</v>
+        <v>5397.340444684313</v>
       </c>
       <c r="AC2" t="n">
-        <v>4678.057222068068</v>
+        <v>4882.22584785833</v>
       </c>
       <c r="AD2" t="n">
-        <v>3779757.063757519</v>
+        <v>3944720.374143716</v>
       </c>
       <c r="AE2" t="n">
-        <v>5171630.365746284</v>
+        <v>5397340.444684314</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.88559747690765e-07</v>
+        <v>1.230061739343092e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.71440972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>4678057.222068068</v>
+        <v>4882225.84785833</v>
       </c>
     </row>
     <row r="3">
@@ -46054,28 +46054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2349.15501597341</v>
+        <v>2475.263269395998</v>
       </c>
       <c r="AB3" t="n">
-        <v>3214.217530259947</v>
+        <v>3386.764406096231</v>
       </c>
       <c r="AC3" t="n">
-        <v>2907.457120354453</v>
+        <v>3063.536364531976</v>
       </c>
       <c r="AD3" t="n">
-        <v>2349155.01597341</v>
+        <v>2475263.269395998</v>
       </c>
       <c r="AE3" t="n">
-        <v>3214217.530259947</v>
+        <v>3386764.406096231</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.106335988019032e-07</v>
+        <v>1.626780467785326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.98003472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>2907457.120354453</v>
+        <v>3063536.364531976</v>
       </c>
     </row>
     <row r="4">
@@ -46160,28 +46160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2028.233202357002</v>
+        <v>2134.999357660908</v>
       </c>
       <c r="AB4" t="n">
-        <v>2775.118146798603</v>
+        <v>2921.200310675751</v>
       </c>
       <c r="AC4" t="n">
-        <v>2510.264765770926</v>
+        <v>2642.405052955242</v>
       </c>
       <c r="AD4" t="n">
-        <v>2028233.202357002</v>
+        <v>2134999.357660908</v>
       </c>
       <c r="AE4" t="n">
-        <v>2775118.146798603</v>
+        <v>2921200.31067575</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.90930351491839e-07</v>
+        <v>1.770224756546949e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.03559027777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2510264.765770926</v>
+        <v>2642405.052955242</v>
       </c>
     </row>
     <row r="5">
@@ -46266,28 +46266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1866.810494344462</v>
+        <v>1973.491308793796</v>
       </c>
       <c r="AB5" t="n">
-        <v>2554.252476228577</v>
+        <v>2700.217872983526</v>
       </c>
       <c r="AC5" t="n">
-        <v>2310.478204813187</v>
+        <v>2442.512868965565</v>
       </c>
       <c r="AD5" t="n">
-        <v>1866810.494344462</v>
+        <v>1973491.308793796</v>
       </c>
       <c r="AE5" t="n">
-        <v>2554252.476228577</v>
+        <v>2700217.872983526</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.03268868779049e-06</v>
+        <v>1.844822976892906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.14583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2310478.204813187</v>
+        <v>2442512.868965565</v>
       </c>
     </row>
     <row r="6">
@@ -46372,28 +46372,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1759.480175723592</v>
+        <v>1866.246241518946</v>
       </c>
       <c r="AB6" t="n">
-        <v>2407.398399212029</v>
+        <v>2553.480440619628</v>
       </c>
       <c r="AC6" t="n">
-        <v>2177.639674796107</v>
+        <v>2309.779851199197</v>
       </c>
       <c r="AD6" t="n">
-        <v>1759480.175723592</v>
+        <v>1866246.241518946</v>
       </c>
       <c r="AE6" t="n">
-        <v>2407398.399212029</v>
+        <v>2553480.440619628</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.057441822078364e-06</v>
+        <v>1.889042644857016e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.64887152777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>2177639.674796107</v>
+        <v>2309779.851199197</v>
       </c>
     </row>
     <row r="7">
@@ -46478,28 +46478,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1683.406162178129</v>
+        <v>1780.458553241132</v>
       </c>
       <c r="AB7" t="n">
-        <v>2303.310577730515</v>
+        <v>2436.101940832225</v>
       </c>
       <c r="AC7" t="n">
-        <v>2083.485848908613</v>
+        <v>2203.603790689745</v>
       </c>
       <c r="AD7" t="n">
-        <v>1683406.162178129</v>
+        <v>1780458.553241132</v>
       </c>
       <c r="AE7" t="n">
-        <v>2303310.577730515</v>
+        <v>2436101.940832226</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.074648269083351e-06</v>
+        <v>1.919780706734506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.31901041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2083485.848908613</v>
+        <v>2203603.790689745</v>
       </c>
     </row>
     <row r="8">
@@ -46584,28 +46584,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1615.617811348642</v>
+        <v>1712.670202411645</v>
       </c>
       <c r="AB8" t="n">
-        <v>2210.559565514638</v>
+        <v>2343.350928616349</v>
       </c>
       <c r="AC8" t="n">
-        <v>1999.586863121757</v>
+        <v>2119.704804902889</v>
       </c>
       <c r="AD8" t="n">
-        <v>1615617.811348642</v>
+        <v>1712670.202411645</v>
       </c>
       <c r="AE8" t="n">
-        <v>2210559.565514638</v>
+        <v>2343350.92861635</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.088332928689656e-06</v>
+        <v>1.944227352438241e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.06510416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1999586.863121757</v>
+        <v>2119704.804902889</v>
       </c>
     </row>
     <row r="9">
@@ -46690,28 +46690,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1554.456369387568</v>
+        <v>1661.137094328351</v>
       </c>
       <c r="AB9" t="n">
-        <v>2126.875782371112</v>
+        <v>2272.841056656513</v>
       </c>
       <c r="AC9" t="n">
-        <v>1923.889742790521</v>
+        <v>2055.924296161672</v>
       </c>
       <c r="AD9" t="n">
-        <v>1554456.369387568</v>
+        <v>1661137.094328351</v>
       </c>
       <c r="AE9" t="n">
-        <v>2126875.782371112</v>
+        <v>2272841.056656512</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.095577748481229e-06</v>
+        <v>1.957169694281395e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.93055555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>1923889.742790521</v>
+        <v>2055924.296161672</v>
       </c>
     </row>
     <row r="10">
@@ -46796,28 +46796,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1547.408729401942</v>
+        <v>1654.089454342725</v>
       </c>
       <c r="AB10" t="n">
-        <v>2117.232890422845</v>
+        <v>2263.198164708247</v>
       </c>
       <c r="AC10" t="n">
-        <v>1915.167154915913</v>
+        <v>2047.201708287065</v>
       </c>
       <c r="AD10" t="n">
-        <v>1547408.729401942</v>
+        <v>1654089.454342725</v>
       </c>
       <c r="AE10" t="n">
-        <v>2117232.890422845</v>
+        <v>2263198.164708246</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.097690820920438e-06</v>
+        <v>1.960944543985649e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.89366319444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1915167.154915913</v>
+        <v>2047201.708287065</v>
       </c>
     </row>
     <row r="11">
@@ -46902,28 +46902,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1552.785058733405</v>
+        <v>1659.465783674188</v>
       </c>
       <c r="AB11" t="n">
-        <v>2124.589021401064</v>
+        <v>2270.554295686464</v>
       </c>
       <c r="AC11" t="n">
-        <v>1921.821227077965</v>
+        <v>2053.855780449117</v>
       </c>
       <c r="AD11" t="n">
-        <v>1552785.058733405</v>
+        <v>1659465.783674188</v>
       </c>
       <c r="AE11" t="n">
-        <v>2124589.021401064</v>
+        <v>2270554.295686464</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.098294555903069e-06</v>
+        <v>1.962023072472578e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.8828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1921821.227077965</v>
+        <v>2053855.780449116</v>
       </c>
     </row>
   </sheetData>
